--- a/Base de Dados/Dados Tratados/NOVEMBRO_2022.xlsx
+++ b/Base de Dados/Dados Tratados/NOVEMBRO_2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projetos\GitHub\Projeto-Painel-de-BI-Dados-Agricolas\Base de Dados\Dados Tratados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099569F2-7D62-490E-8983-B9AD6D47FEEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB4C557-812C-491F-A053-C8B8FB9FC58E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AREA_POR_PRODUTO" sheetId="1" r:id="rId1"/>
@@ -1129,7 +1129,9 @@
     <tableColumn id="22" xr3:uid="{49B2C1E3-0396-4037-BB4B-32C18FDB6CC7}" name="CEVADA" dataDxfId="5"/>
     <tableColumn id="23" xr3:uid="{C10C34AB-D106-4FB2-B097-C90EF653E9E5}" name="TRIGO" dataDxfId="4"/>
     <tableColumn id="24" xr3:uid="{80045204-E6E2-42D6-9449-CCD3B9641988}" name="TRITICALE" dataDxfId="3"/>
-    <tableColumn id="25" xr3:uid="{0FB9C96B-75F4-4026-A109-A799A828C96B}" name="GERAL" dataDxfId="2"/>
+    <tableColumn id="25" xr3:uid="{0FB9C96B-75F4-4026-A109-A799A828C96B}" name="GERAL" dataDxfId="2">
+      <calculatedColumnFormula>SUM(B2,E2:F2,I2,M2:X2)</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="26" xr3:uid="{FA0650E0-02EE-433A-927B-8DCFAD627C43}" name="ANO"/>
     <tableColumn id="27" xr3:uid="{94C00EC6-AB2D-4D90-B787-2C1FF57B5832}" name="MÊS" dataDxfId="1"/>
     <tableColumn id="28" xr3:uid="{57AFB38B-E07E-457A-9571-EB539326E109}" name="SAFRA" dataDxfId="0"/>
@@ -10675,7 +10677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BCD6B43-6B79-4F6C-BEBB-EEE94FDB59C5}">
   <dimension ref="A1:AM36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:Y36"/>
     </sheetView>
   </sheetViews>
@@ -13830,8 +13832,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A92389E-F363-478C-8FE0-DB1A38F4DB64}">
   <dimension ref="A1:AM25"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AJ25"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AD1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2:AJ25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13840,6 +13843,7 @@
     <col min="9" max="9" width="9" customWidth="1"/>
     <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="14.42578125" bestFit="1" customWidth="1"/>
@@ -13971,13 +13975,13 @@
         <v>35</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>53.400000000000006</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>31.6</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -13992,58 +13996,58 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>0</v>
+        <v>21.8</v>
       </c>
       <c r="J2" s="1">
-        <v>0</v>
+        <v>1665.2</v>
       </c>
       <c r="K2" s="1">
-        <v>0</v>
+        <v>123.6</v>
       </c>
       <c r="L2" s="1">
-        <v>0</v>
+        <v>70.7</v>
       </c>
       <c r="M2" s="1">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="N2" s="1">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="O2" s="1">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P2" s="1">
         <v>0</v>
       </c>
       <c r="Q2" s="1">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="R2" s="1">
         <v>0</v>
       </c>
       <c r="S2" s="1">
-        <v>0</v>
+        <v>1463.9</v>
       </c>
       <c r="T2" s="1">
-        <v>0</v>
+        <v>5347.3</v>
       </c>
       <c r="U2" s="1">
-        <v>0</v>
+        <v>5082.8999999999996</v>
       </c>
       <c r="V2" s="1">
-        <v>0</v>
+        <v>141.6</v>
       </c>
       <c r="W2" s="1">
-        <v>0</v>
+        <v>122.8</v>
       </c>
       <c r="X2" s="1">
         <v>0</v>
       </c>
       <c r="Y2" s="1">
-        <v>0</v>
+        <v>162.60000000000002</v>
       </c>
       <c r="Z2" s="1">
-        <v>0</v>
+        <v>116.9</v>
       </c>
       <c r="AA2" s="1">
         <v>0</v>
@@ -14052,13 +14056,13 @@
         <v>0</v>
       </c>
       <c r="AC2" s="1">
-        <v>0</v>
+        <v>45.7</v>
       </c>
       <c r="AD2" s="1">
-        <v>0</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AE2" s="1">
-        <v>0</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AF2" s="1">
         <v>0</v>
@@ -14067,13 +14071,13 @@
         <v>0</v>
       </c>
       <c r="AH2" s="1">
-        <v>0</v>
+        <v>1718.6000000000001</v>
       </c>
       <c r="AI2" s="1">
-        <v>0</v>
+        <v>5514.8</v>
       </c>
       <c r="AJ2" s="1">
-        <v>0</v>
+        <v>7233.4000000000005</v>
       </c>
       <c r="AK2" s="2">
         <v>2022</v>
@@ -14090,13 +14094,13 @@
         <v>36</v>
       </c>
       <c r="B3" s="1">
-        <v>0</v>
+        <v>20.7</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -14111,58 +14115,58 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>0</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="J3" s="1">
-        <v>0</v>
+        <v>682.40000000000009</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>50.7</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="M3" s="1">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N3" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="O3" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P3" s="1">
         <v>0</v>
       </c>
       <c r="Q3" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R3" s="1">
         <v>0</v>
       </c>
       <c r="S3" s="1">
-        <v>0</v>
+        <v>600.20000000000005</v>
       </c>
       <c r="T3" s="1">
-        <v>0</v>
+        <v>2206.8999999999996</v>
       </c>
       <c r="U3" s="1">
-        <v>0</v>
+        <v>2099.1999999999998</v>
       </c>
       <c r="V3" s="1">
-        <v>0</v>
+        <v>58.6</v>
       </c>
       <c r="W3" s="1">
-        <v>0</v>
+        <v>49.1</v>
       </c>
       <c r="X3" s="1">
         <v>0</v>
       </c>
       <c r="Y3" s="1">
-        <v>0</v>
+        <v>67.900000000000006</v>
       </c>
       <c r="Z3" s="1">
-        <v>0</v>
+        <v>47.7</v>
       </c>
       <c r="AA3" s="1">
         <v>0</v>
@@ -14171,13 +14175,13 @@
         <v>0</v>
       </c>
       <c r="AC3" s="1">
-        <v>0</v>
+        <v>20.2</v>
       </c>
       <c r="AD3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF3" s="1">
         <v>0</v>
@@ -14186,13 +14190,13 @@
         <v>0</v>
       </c>
       <c r="AH3" s="1">
-        <v>0</v>
+        <v>703.10000000000014</v>
       </c>
       <c r="AI3" s="1">
-        <v>0</v>
+        <v>2276.7999999999997</v>
       </c>
       <c r="AJ3" s="1">
-        <v>0</v>
+        <v>2979.9</v>
       </c>
       <c r="AK3" s="2">
         <v>2022</v>
@@ -14209,13 +14213,13 @@
         <v>37</v>
       </c>
       <c r="B4" s="1">
-        <v>0</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -14230,58 +14234,58 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>0</v>
+        <v>13.100000000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0</v>
+        <v>982.80000000000007</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>72.899999999999991</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>41.7</v>
       </c>
       <c r="M4" s="1">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="N4" s="1">
-        <v>0</v>
+        <v>0.79999999999999993</v>
       </c>
       <c r="O4" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="P4" s="1">
         <v>0</v>
       </c>
       <c r="Q4" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="R4" s="1">
         <v>0</v>
       </c>
       <c r="S4" s="1">
-        <v>0</v>
+        <v>863.7</v>
       </c>
       <c r="T4" s="1">
-        <v>0</v>
+        <v>3140.3999999999996</v>
       </c>
       <c r="U4" s="1">
-        <v>0</v>
+        <v>2983.7</v>
       </c>
       <c r="V4" s="1">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="W4" s="1">
-        <v>0</v>
+        <v>73.699999999999989</v>
       </c>
       <c r="X4" s="1">
         <v>0</v>
       </c>
       <c r="Y4" s="1">
-        <v>0</v>
+        <v>94.7</v>
       </c>
       <c r="Z4" s="1">
-        <v>0</v>
+        <v>69.2</v>
       </c>
       <c r="AA4" s="1">
         <v>0</v>
@@ -14290,13 +14294,13 @@
         <v>0</v>
       </c>
       <c r="AC4" s="1">
-        <v>0</v>
+        <v>25.500000000000004</v>
       </c>
       <c r="AD4" s="1">
-        <v>0</v>
+        <v>2.9000000000000004</v>
       </c>
       <c r="AE4" s="1">
-        <v>0</v>
+        <v>2.9000000000000004</v>
       </c>
       <c r="AF4" s="1">
         <v>0</v>
@@ -14305,13 +14309,13 @@
         <v>0</v>
       </c>
       <c r="AH4" s="1">
-        <v>0</v>
+        <v>1015.5000000000001</v>
       </c>
       <c r="AI4" s="1">
-        <v>0</v>
+        <v>3237.9999999999995</v>
       </c>
       <c r="AJ4" s="1">
-        <v>0</v>
+        <v>4253.4999999999991</v>
       </c>
       <c r="AK4" s="2">
         <v>2022</v>
@@ -14352,7 +14356,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="K5" s="1">
         <v>0</v>
@@ -14361,13 +14365,13 @@
         <v>0</v>
       </c>
       <c r="M5" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N5" s="1">
         <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P5" s="1">
         <v>0</v>
@@ -14379,16 +14383,16 @@
         <v>0</v>
       </c>
       <c r="S5" s="1">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="T5" s="1">
-        <v>0</v>
+        <v>22.2</v>
       </c>
       <c r="U5" s="1">
         <v>0</v>
       </c>
       <c r="V5" s="1">
-        <v>0</v>
+        <v>22.2</v>
       </c>
       <c r="W5" s="1">
         <v>0</v>
@@ -14397,10 +14401,10 @@
         <v>0</v>
       </c>
       <c r="Y5" s="1">
-        <v>0</v>
+        <v>767.3</v>
       </c>
       <c r="Z5" s="1">
-        <v>0</v>
+        <v>21.5</v>
       </c>
       <c r="AA5" s="1">
         <v>0</v>
@@ -14409,28 +14413,28 @@
         <v>0</v>
       </c>
       <c r="AC5" s="1">
-        <v>0</v>
+        <v>745.8</v>
       </c>
       <c r="AD5" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AE5" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF5" s="1">
         <v>0</v>
       </c>
       <c r="AG5" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AH5" s="1">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AI5" s="1">
-        <v>0</v>
+        <v>798.5</v>
       </c>
       <c r="AJ5" s="1">
-        <v>0</v>
+        <v>802.3</v>
       </c>
       <c r="AK5" s="2">
         <v>2022</v>
@@ -14447,109 +14451,109 @@
         <v>38</v>
       </c>
       <c r="B6" s="1">
-        <v>0</v>
+        <v>743.2</v>
       </c>
       <c r="C6" s="1">
-        <v>0</v>
+        <v>91.1</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>84.9</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="H6" s="1">
-        <v>0</v>
+        <v>100.5</v>
       </c>
       <c r="I6" s="1">
-        <v>0</v>
+        <v>455.90000000000003</v>
       </c>
       <c r="J6" s="1">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>185.29999999999998</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>85.199999999999989</v>
       </c>
       <c r="M6" s="1">
-        <v>0</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="N6" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O6" s="1">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P6" s="1">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Q6" s="1">
-        <v>0</v>
+        <v>12.2</v>
       </c>
       <c r="R6" s="1">
-        <v>0</v>
+        <v>46.9</v>
       </c>
       <c r="S6" s="1">
         <v>0</v>
       </c>
       <c r="T6" s="1">
-        <v>0</v>
+        <v>435.2</v>
       </c>
       <c r="U6" s="1">
-        <v>0</v>
+        <v>300.59999999999997</v>
       </c>
       <c r="V6" s="1">
-        <v>0</v>
+        <v>49.3</v>
       </c>
       <c r="W6" s="1">
-        <v>0</v>
+        <v>85.300000000000011</v>
       </c>
       <c r="X6" s="1">
         <v>0</v>
       </c>
       <c r="Y6" s="1">
-        <v>0</v>
+        <v>52.099999999999994</v>
       </c>
       <c r="Z6" s="1">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="AA6" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AB6" s="1">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="AC6" s="1">
-        <v>0</v>
+        <v>41.699999999999996</v>
       </c>
       <c r="AD6" s="1">
-        <v>0</v>
+        <v>9056</v>
       </c>
       <c r="AE6" s="1">
-        <v>0</v>
+        <v>153.4</v>
       </c>
       <c r="AF6" s="1">
-        <v>0</v>
+        <v>1208.2</v>
       </c>
       <c r="AG6" s="1">
-        <v>0</v>
+        <v>7694.4</v>
       </c>
       <c r="AH6" s="1">
-        <v>0</v>
+        <v>1096.2</v>
       </c>
       <c r="AI6" s="1">
-        <v>0</v>
+        <v>9543.2999999999993</v>
       </c>
       <c r="AJ6" s="1">
-        <v>0</v>
+        <v>10639.5</v>
       </c>
       <c r="AK6" s="2">
         <v>2022</v>
@@ -14566,46 +14570,46 @@
         <v>34</v>
       </c>
       <c r="B7" s="1">
-        <v>0</v>
+        <v>179.79999999999998</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>84.9</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="G7" s="1">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="H7" s="1">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I7" s="1">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="J7" s="1">
-        <v>0</v>
+        <v>237.60000000000002</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>169.2</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>63.8</v>
       </c>
       <c r="M7" s="1">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="N7" s="1">
         <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P7" s="1">
         <v>0</v>
@@ -14620,40 +14624,40 @@
         <v>0</v>
       </c>
       <c r="T7" s="1">
-        <v>0</v>
+        <v>286.79999999999995</v>
       </c>
       <c r="U7" s="1">
-        <v>0</v>
+        <v>278.39999999999998</v>
       </c>
       <c r="V7" s="1">
         <v>0</v>
       </c>
       <c r="W7" s="1">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="X7" s="1">
         <v>0</v>
       </c>
       <c r="Y7" s="1">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="Z7" s="1">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AA7" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AB7" s="1">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="AC7" s="1">
-        <v>0</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AD7" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE7" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF7" s="1">
         <v>0</v>
@@ -14662,13 +14666,13 @@
         <v>0</v>
       </c>
       <c r="AH7" s="1">
-        <v>0</v>
+        <v>417.4</v>
       </c>
       <c r="AI7" s="1">
-        <v>0</v>
+        <v>297.29999999999995</v>
       </c>
       <c r="AJ7" s="1">
-        <v>0</v>
+        <v>714.69999999999993</v>
       </c>
       <c r="AK7" s="2">
         <v>2022</v>
@@ -14685,10 +14689,10 @@
         <v>39</v>
       </c>
       <c r="B8" s="1">
-        <v>0</v>
+        <v>563.4</v>
       </c>
       <c r="C8" s="1">
-        <v>0</v>
+        <v>91.1</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -14703,61 +14707,61 @@
         <v>0</v>
       </c>
       <c r="H8" s="1">
-        <v>0</v>
+        <v>25.5</v>
       </c>
       <c r="I8" s="1">
-        <v>0</v>
+        <v>446.8</v>
       </c>
       <c r="J8" s="1">
-        <v>0</v>
+        <v>115.4</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>21.4</v>
       </c>
       <c r="M8" s="1">
-        <v>0</v>
+        <v>14.3</v>
       </c>
       <c r="N8" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O8" s="1">
         <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Q8" s="1">
-        <v>0</v>
+        <v>12.2</v>
       </c>
       <c r="R8" s="1">
-        <v>0</v>
+        <v>46.9</v>
       </c>
       <c r="S8" s="1">
         <v>0</v>
       </c>
       <c r="T8" s="1">
-        <v>0</v>
+        <v>148.4</v>
       </c>
       <c r="U8" s="1">
-        <v>0</v>
+        <v>22.2</v>
       </c>
       <c r="V8" s="1">
-        <v>0</v>
+        <v>49.3</v>
       </c>
       <c r="W8" s="1">
-        <v>0</v>
+        <v>76.900000000000006</v>
       </c>
       <c r="X8" s="1">
         <v>0</v>
       </c>
       <c r="Y8" s="1">
-        <v>0</v>
+        <v>44.599999999999994</v>
       </c>
       <c r="Z8" s="1">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="AA8" s="1">
         <v>0</v>
@@ -14766,28 +14770,28 @@
         <v>0</v>
       </c>
       <c r="AC8" s="1">
-        <v>0</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="AD8" s="1">
-        <v>0</v>
+        <v>9053</v>
       </c>
       <c r="AE8" s="1">
-        <v>0</v>
+        <v>150.4</v>
       </c>
       <c r="AF8" s="1">
-        <v>0</v>
+        <v>1208.2</v>
       </c>
       <c r="AG8" s="1">
-        <v>0</v>
+        <v>7694.4</v>
       </c>
       <c r="AH8" s="1">
-        <v>0</v>
+        <v>678.8</v>
       </c>
       <c r="AI8" s="1">
-        <v>0</v>
+        <v>9246</v>
       </c>
       <c r="AJ8" s="1">
-        <v>0</v>
+        <v>9924.7999999999993</v>
       </c>
       <c r="AK8" s="2">
         <v>2022</v>
@@ -14804,109 +14808,109 @@
         <v>40</v>
       </c>
       <c r="B9" s="1">
-        <v>0</v>
+        <v>106.9</v>
       </c>
       <c r="C9" s="1">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="F9" s="1">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="G9" s="1">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>0</v>
+        <v>21.3</v>
       </c>
       <c r="I9" s="1">
-        <v>0</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="J9" s="1">
-        <v>0</v>
+        <v>664.8</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>29.1</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="M9" s="1">
-        <v>0</v>
+        <v>114.8</v>
       </c>
       <c r="N9" s="1">
-        <v>0</v>
+        <v>19.7</v>
       </c>
       <c r="O9" s="1">
-        <v>0</v>
+        <v>37.9</v>
       </c>
       <c r="P9" s="1">
-        <v>0</v>
+        <v>95.7</v>
       </c>
       <c r="Q9" s="1">
-        <v>0</v>
+        <v>10.4</v>
       </c>
       <c r="R9" s="1">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="S9" s="1">
-        <v>0</v>
+        <v>287.39999999999998</v>
       </c>
       <c r="T9" s="1">
-        <v>0</v>
+        <v>578.20000000000005</v>
       </c>
       <c r="U9" s="1">
-        <v>0</v>
+        <v>261.8</v>
       </c>
       <c r="V9" s="1">
-        <v>0</v>
+        <v>13.1</v>
       </c>
       <c r="W9" s="1">
-        <v>0</v>
+        <v>264.5</v>
       </c>
       <c r="X9" s="1">
-        <v>0</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="Y9" s="1">
-        <v>0</v>
+        <v>648.70000000000005</v>
       </c>
       <c r="Z9" s="1">
-        <v>0</v>
+        <v>470.3</v>
       </c>
       <c r="AA9" s="1">
-        <v>0</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="AB9" s="1">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AC9" s="1">
-        <v>0</v>
+        <v>167.6</v>
       </c>
       <c r="AD9" s="1">
-        <v>0</v>
+        <v>901.3</v>
       </c>
       <c r="AE9" s="1">
-        <v>0</v>
+        <v>721.3</v>
       </c>
       <c r="AF9" s="1">
-        <v>0</v>
+        <v>110.3</v>
       </c>
       <c r="AG9" s="1">
-        <v>0</v>
+        <v>69.7</v>
       </c>
       <c r="AH9" s="1">
-        <v>0</v>
+        <v>771.69999999999993</v>
       </c>
       <c r="AI9" s="1">
-        <v>0</v>
+        <v>2128.1999999999998</v>
       </c>
       <c r="AJ9" s="1">
-        <v>0</v>
+        <v>2899.8999999999996</v>
       </c>
       <c r="AK9" s="2">
         <v>2022</v>
@@ -14923,13 +14927,13 @@
         <v>41</v>
       </c>
       <c r="B10" s="1">
-        <v>0</v>
+        <v>7.9000000000000012</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -14938,16 +14942,16 @@
         <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="I10" s="1">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="J10" s="1">
-        <v>0</v>
+        <v>246.7</v>
       </c>
       <c r="K10" s="1">
         <v>0</v>
@@ -14956,76 +14960,76 @@
         <v>0</v>
       </c>
       <c r="M10" s="1">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="N10" s="1">
         <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>0</v>
+        <v>12.3</v>
       </c>
       <c r="P10" s="1">
-        <v>0</v>
+        <v>48.2</v>
       </c>
       <c r="Q10" s="1">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="R10" s="1">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="S10" s="1">
-        <v>0</v>
+        <v>172.5</v>
       </c>
       <c r="T10" s="1">
-        <v>0</v>
+        <v>477.1</v>
       </c>
       <c r="U10" s="1">
-        <v>0</v>
+        <v>180.1</v>
       </c>
       <c r="V10" s="1">
-        <v>0</v>
+        <v>13.1</v>
       </c>
       <c r="W10" s="1">
-        <v>0</v>
+        <v>247.9</v>
       </c>
       <c r="X10" s="1">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="Y10" s="1">
-        <v>0</v>
+        <v>628.69999999999993</v>
       </c>
       <c r="Z10" s="1">
-        <v>0</v>
+        <v>451.4</v>
       </c>
       <c r="AA10" s="1">
-        <v>0</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="AB10" s="1">
         <v>0</v>
       </c>
       <c r="AC10" s="1">
-        <v>0</v>
+        <v>167.6</v>
       </c>
       <c r="AD10" s="1">
-        <v>0</v>
+        <v>361</v>
       </c>
       <c r="AE10" s="1">
-        <v>0</v>
+        <v>313.8</v>
       </c>
       <c r="AF10" s="1">
-        <v>0</v>
+        <v>25.3</v>
       </c>
       <c r="AG10" s="1">
-        <v>0</v>
+        <v>21.9</v>
       </c>
       <c r="AH10" s="1">
-        <v>0</v>
+        <v>254.6</v>
       </c>
       <c r="AI10" s="1">
-        <v>0</v>
+        <v>1466.8</v>
       </c>
       <c r="AJ10" s="1">
-        <v>0</v>
+        <v>1721.3999999999999</v>
       </c>
       <c r="AK10" s="2">
         <v>2022</v>
@@ -15066,7 +15070,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>0</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="K11" s="1">
         <v>0</v>
@@ -15081,10 +15085,10 @@
         <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" s="1">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="Q11" s="1">
         <v>0</v>
@@ -15096,7 +15100,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="1">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="U11" s="1">
         <v>0</v>
@@ -15108,43 +15112,43 @@
         <v>0</v>
       </c>
       <c r="X11" s="1">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="Y11" s="1">
-        <v>0</v>
+        <v>12.799999999999999</v>
       </c>
       <c r="Z11" s="1">
-        <v>0</v>
+        <v>11.7</v>
       </c>
       <c r="AA11" s="1">
         <v>0</v>
       </c>
       <c r="AB11" s="1">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AC11" s="1">
         <v>0</v>
       </c>
       <c r="AD11" s="1">
-        <v>0</v>
+        <v>540.29999999999995</v>
       </c>
       <c r="AE11" s="1">
-        <v>0</v>
+        <v>407.5</v>
       </c>
       <c r="AF11" s="1">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AG11" s="1">
-        <v>0</v>
+        <v>47.8</v>
       </c>
       <c r="AH11" s="1">
-        <v>0</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="AI11" s="1">
-        <v>0</v>
+        <v>555.79999999999995</v>
       </c>
       <c r="AJ11" s="1">
-        <v>0</v>
+        <v>564.59999999999991</v>
       </c>
       <c r="AK11" s="2">
         <v>2022</v>
@@ -15161,79 +15165,79 @@
         <v>43</v>
       </c>
       <c r="B12" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="C12" s="1">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="F12" s="1">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
       </c>
       <c r="H12" s="1">
-        <v>0</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="I12" s="1">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="J12" s="1">
-        <v>0</v>
+        <v>409.5</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>29.1</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="M12" s="1">
-        <v>0</v>
+        <v>111.7</v>
       </c>
       <c r="N12" s="1">
-        <v>0</v>
+        <v>19.7</v>
       </c>
       <c r="O12" s="1">
-        <v>0</v>
+        <v>24.7</v>
       </c>
       <c r="P12" s="1">
-        <v>0</v>
+        <v>39.9</v>
       </c>
       <c r="Q12" s="1">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="R12" s="1">
         <v>0</v>
       </c>
       <c r="S12" s="1">
-        <v>0</v>
+        <v>114.8</v>
       </c>
       <c r="T12" s="1">
-        <v>0</v>
+        <v>98.3</v>
       </c>
       <c r="U12" s="1">
-        <v>0</v>
+        <v>81.7</v>
       </c>
       <c r="V12" s="1">
         <v>0</v>
       </c>
       <c r="W12" s="1">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="X12" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Y12" s="1">
-        <v>0</v>
+        <v>7.3999999999999995</v>
       </c>
       <c r="Z12" s="1">
-        <v>0</v>
+        <v>7.3999999999999995</v>
       </c>
       <c r="AA12" s="1">
         <v>0</v>
@@ -15257,13 +15261,13 @@
         <v>0</v>
       </c>
       <c r="AH12" s="1">
-        <v>0</v>
+        <v>508.5</v>
       </c>
       <c r="AI12" s="1">
-        <v>0</v>
+        <v>105.7</v>
       </c>
       <c r="AJ12" s="1">
-        <v>0</v>
+        <v>614.20000000000005</v>
       </c>
       <c r="AK12" s="2">
         <v>2022</v>
@@ -15280,7 +15284,7 @@
         <v>44</v>
       </c>
       <c r="B13" s="1">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -15298,10 +15302,10 @@
         <v>0</v>
       </c>
       <c r="H13" s="1">
-        <v>0</v>
+        <v>30.7</v>
       </c>
       <c r="I13" s="1">
-        <v>0</v>
+        <v>20.3</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -15334,16 +15338,16 @@
         <v>0</v>
       </c>
       <c r="T13" s="1">
-        <v>0</v>
+        <v>59.9</v>
       </c>
       <c r="U13" s="1">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="V13" s="1">
         <v>0</v>
       </c>
       <c r="W13" s="1">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X13" s="1">
         <v>0</v>
@@ -15376,13 +15380,13 @@
         <v>0</v>
       </c>
       <c r="AH13" s="1">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="AI13" s="1">
-        <v>0</v>
+        <v>59.9</v>
       </c>
       <c r="AJ13" s="1">
-        <v>0</v>
+        <v>110.9</v>
       </c>
       <c r="AK13" s="2">
         <v>2022</v>
@@ -15453,25 +15457,25 @@
         <v>0</v>
       </c>
       <c r="T14" s="1">
-        <v>0</v>
+        <v>52.2</v>
       </c>
       <c r="U14" s="1">
-        <v>0</v>
+        <v>13.3</v>
       </c>
       <c r="V14" s="1">
         <v>0</v>
       </c>
       <c r="W14" s="1">
-        <v>0</v>
+        <v>37.4</v>
       </c>
       <c r="X14" s="1">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Y14" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z14" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA14" s="1">
         <v>0</v>
@@ -15483,7 +15487,7 @@
         <v>0</v>
       </c>
       <c r="AD14" s="1">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="AE14" s="1">
         <v>0</v>
@@ -15492,16 +15496,16 @@
         <v>0</v>
       </c>
       <c r="AG14" s="1">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="AH14" s="1">
         <v>0</v>
       </c>
       <c r="AI14" s="1">
-        <v>0</v>
+        <v>60.400000000000006</v>
       </c>
       <c r="AJ14" s="1">
-        <v>0</v>
+        <v>60.400000000000006</v>
       </c>
       <c r="AK14" s="2">
         <v>2022</v>
@@ -15542,7 +15546,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="1">
-        <v>0</v>
+        <v>37.800000000000004</v>
       </c>
       <c r="K15" s="1">
         <v>0</v>
@@ -15551,7 +15555,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N15" s="1">
         <v>0</v>
@@ -15569,13 +15573,13 @@
         <v>0</v>
       </c>
       <c r="S15" s="1">
-        <v>0</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="T15" s="1">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="U15" s="1">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="V15" s="1">
         <v>0</v>
@@ -15614,13 +15618,13 @@
         <v>0</v>
       </c>
       <c r="AH15" s="1">
-        <v>0</v>
+        <v>37.800000000000004</v>
       </c>
       <c r="AI15" s="1">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="AJ15" s="1">
-        <v>0</v>
+        <v>38.500000000000007</v>
       </c>
       <c r="AK15" s="2">
         <v>2022</v>
@@ -15637,109 +15641,109 @@
         <v>47</v>
       </c>
       <c r="B16" s="1">
-        <v>0</v>
+        <v>5219.1000000000004</v>
       </c>
       <c r="C16" s="1">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D16" s="1">
-        <v>0</v>
+        <v>1480.3</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
+        <v>155.30000000000001</v>
       </c>
       <c r="F16" s="1">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="G16" s="1">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="H16" s="1">
-        <v>0</v>
+        <v>1349.8</v>
       </c>
       <c r="I16" s="1">
-        <v>0</v>
+        <v>2132.9</v>
       </c>
       <c r="J16" s="1">
-        <v>0</v>
+        <v>10977.900000000001</v>
       </c>
       <c r="K16" s="1">
-        <v>0</v>
+        <v>3069.8</v>
       </c>
       <c r="L16" s="1">
-        <v>0</v>
+        <v>2787.4</v>
       </c>
       <c r="M16" s="1">
-        <v>0</v>
+        <v>540.4</v>
       </c>
       <c r="N16" s="1">
-        <v>0</v>
+        <v>29.1</v>
       </c>
       <c r="O16" s="1">
-        <v>0</v>
+        <v>72.2</v>
       </c>
       <c r="P16" s="1">
-        <v>0</v>
+        <v>160.5</v>
       </c>
       <c r="Q16" s="1">
-        <v>0</v>
+        <v>83.9</v>
       </c>
       <c r="R16" s="1">
-        <v>0</v>
+        <v>949.1</v>
       </c>
       <c r="S16" s="1">
-        <v>0</v>
+        <v>3285.5</v>
       </c>
       <c r="T16" s="1">
-        <v>0</v>
+        <v>69269.099999999991</v>
       </c>
       <c r="U16" s="1">
-        <v>0</v>
+        <v>44614.7</v>
       </c>
       <c r="V16" s="1">
-        <v>0</v>
+        <v>11159.3</v>
       </c>
       <c r="W16" s="1">
-        <v>0</v>
+        <v>12990.7</v>
       </c>
       <c r="X16" s="1">
-        <v>0</v>
+        <v>504.4</v>
       </c>
       <c r="Y16" s="1">
-        <v>0</v>
+        <v>13161.100000000002</v>
       </c>
       <c r="Z16" s="1">
-        <v>0</v>
+        <v>8917.6</v>
       </c>
       <c r="AA16" s="1">
-        <v>0</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="AB16" s="1">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="AC16" s="1">
-        <v>0</v>
+        <v>4196.2</v>
       </c>
       <c r="AD16" s="1">
-        <v>0</v>
+        <v>27770.1</v>
       </c>
       <c r="AE16" s="1">
-        <v>0</v>
+        <v>19254.3</v>
       </c>
       <c r="AF16" s="1">
-        <v>0</v>
+        <v>2685.3</v>
       </c>
       <c r="AG16" s="1">
-        <v>0</v>
+        <v>5830.5</v>
       </c>
       <c r="AH16" s="1">
-        <v>0</v>
+        <v>16197.000000000002</v>
       </c>
       <c r="AI16" s="1">
-        <v>0</v>
+        <v>110200.29999999999</v>
       </c>
       <c r="AJ16" s="1">
-        <v>0</v>
+        <v>126397.29999999999</v>
       </c>
       <c r="AK16" s="2">
         <v>2022</v>
@@ -15756,37 +15760,37 @@
         <v>48</v>
       </c>
       <c r="B17" s="1">
-        <v>0</v>
+        <v>8928.2000000000007</v>
       </c>
       <c r="C17" s="1">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="D17" s="1">
-        <v>0</v>
+        <v>1705.4</v>
       </c>
       <c r="E17" s="1">
-        <v>0</v>
+        <v>28.8</v>
       </c>
       <c r="F17" s="1">
-        <v>0</v>
+        <v>19.8</v>
       </c>
       <c r="G17" s="1">
-        <v>0</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>0</v>
+        <v>2790.1</v>
       </c>
       <c r="I17" s="1">
-        <v>0</v>
+        <v>4006.5</v>
       </c>
       <c r="J17" s="1">
-        <v>0</v>
+        <v>14491.599999999999</v>
       </c>
       <c r="K17" s="1">
-        <v>0</v>
+        <v>3759.7</v>
       </c>
       <c r="L17" s="1">
-        <v>0</v>
+        <v>3234.1</v>
       </c>
       <c r="M17" s="1">
         <v>0</v>
@@ -15801,34 +15805,34 @@
         <v>0</v>
       </c>
       <c r="Q17" s="1">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="R17" s="1">
         <v>0</v>
       </c>
       <c r="S17" s="1">
-        <v>0</v>
+        <v>7488.7</v>
       </c>
       <c r="T17" s="1">
-        <v>0</v>
+        <v>72624.3</v>
       </c>
       <c r="U17" s="1">
-        <v>0</v>
+        <v>41538.300000000003</v>
       </c>
       <c r="V17" s="1">
-        <v>0</v>
+        <v>13347.1</v>
       </c>
       <c r="W17" s="1">
-        <v>0</v>
+        <v>17420.400000000001</v>
       </c>
       <c r="X17" s="1">
-        <v>0</v>
+        <v>318.5</v>
       </c>
       <c r="Y17" s="1">
-        <v>0</v>
+        <v>12363.7</v>
       </c>
       <c r="Z17" s="1">
-        <v>0</v>
+        <v>7868</v>
       </c>
       <c r="AA17" s="1">
         <v>0</v>
@@ -15837,28 +15841,28 @@
         <v>0</v>
       </c>
       <c r="AC17" s="1">
-        <v>0</v>
+        <v>4495.7</v>
       </c>
       <c r="AD17" s="1">
-        <v>0</v>
+        <v>45130.399999999994</v>
       </c>
       <c r="AE17" s="1">
-        <v>0</v>
+        <v>20804.3</v>
       </c>
       <c r="AF17" s="1">
-        <v>0</v>
+        <v>2498</v>
       </c>
       <c r="AG17" s="1">
-        <v>0</v>
+        <v>21828.1</v>
       </c>
       <c r="AH17" s="1">
-        <v>0</v>
+        <v>23419.8</v>
       </c>
       <c r="AI17" s="1">
-        <v>0</v>
+        <v>130118.39999999999</v>
       </c>
       <c r="AJ17" s="1">
-        <v>0</v>
+        <v>153538.19999999998</v>
       </c>
       <c r="AK17" s="2">
         <v>2022</v>
@@ -15875,7 +15879,7 @@
         <v>49</v>
       </c>
       <c r="B18" s="1">
-        <v>0</v>
+        <v>166.1</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
@@ -15893,25 +15897,25 @@
         <v>0</v>
       </c>
       <c r="H18" s="1">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="I18" s="1">
-        <v>0</v>
+        <v>112.1</v>
       </c>
       <c r="J18" s="1">
-        <v>0</v>
+        <v>311.7</v>
       </c>
       <c r="K18" s="1">
-        <v>0</v>
+        <v>23.6</v>
       </c>
       <c r="L18" s="1">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="M18" s="1">
         <v>0</v>
       </c>
       <c r="N18" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="O18" s="1">
         <v>0</v>
@@ -15926,28 +15930,28 @@
         <v>0</v>
       </c>
       <c r="S18" s="1">
-        <v>0</v>
+        <v>240.9</v>
       </c>
       <c r="T18" s="1">
-        <v>0</v>
+        <v>1725.5</v>
       </c>
       <c r="U18" s="1">
-        <v>0</v>
+        <v>174.9</v>
       </c>
       <c r="V18" s="1">
-        <v>0</v>
+        <v>340.3</v>
       </c>
       <c r="W18" s="1">
-        <v>0</v>
+        <v>1174.5</v>
       </c>
       <c r="X18" s="1">
-        <v>0</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="Y18" s="1">
-        <v>0</v>
+        <v>712</v>
       </c>
       <c r="Z18" s="1">
-        <v>0</v>
+        <v>669.7</v>
       </c>
       <c r="AA18" s="1">
         <v>0</v>
@@ -15956,13 +15960,13 @@
         <v>0</v>
       </c>
       <c r="AC18" s="1">
-        <v>0</v>
+        <v>42.3</v>
       </c>
       <c r="AD18" s="1">
-        <v>0</v>
+        <v>52.9</v>
       </c>
       <c r="AE18" s="1">
-        <v>0</v>
+        <v>52.9</v>
       </c>
       <c r="AF18" s="1">
         <v>0</v>
@@ -15971,13 +15975,13 @@
         <v>0</v>
       </c>
       <c r="AH18" s="1">
-        <v>0</v>
+        <v>477.79999999999995</v>
       </c>
       <c r="AI18" s="1">
-        <v>0</v>
+        <v>2490.4</v>
       </c>
       <c r="AJ18" s="1">
-        <v>0</v>
+        <v>2968.2</v>
       </c>
       <c r="AK18" s="2">
         <v>2022</v>
@@ -16048,13 +16052,13 @@
         <v>0</v>
       </c>
       <c r="T19" s="1">
-        <v>0</v>
+        <v>74.3</v>
       </c>
       <c r="U19" s="1">
         <v>0</v>
       </c>
       <c r="V19" s="1">
-        <v>0</v>
+        <v>74.3</v>
       </c>
       <c r="W19" s="1">
         <v>0</v>
@@ -16078,25 +16082,25 @@
         <v>0</v>
       </c>
       <c r="AD19" s="1">
-        <v>0</v>
+        <v>1101.3</v>
       </c>
       <c r="AE19" s="1">
-        <v>0</v>
+        <v>241.2</v>
       </c>
       <c r="AF19" s="1">
         <v>0</v>
       </c>
       <c r="AG19" s="1">
-        <v>0</v>
+        <v>860.1</v>
       </c>
       <c r="AH19" s="1">
         <v>0</v>
       </c>
       <c r="AI19" s="1">
-        <v>0</v>
+        <v>1175.5999999999999</v>
       </c>
       <c r="AJ19" s="1">
-        <v>0</v>
+        <v>1175.5999999999999</v>
       </c>
       <c r="AK19" s="2">
         <v>2022</v>
@@ -16197,25 +16201,25 @@
         <v>0</v>
       </c>
       <c r="AD20" s="1">
-        <v>0</v>
+        <v>83.3</v>
       </c>
       <c r="AE20" s="1">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AF20" s="1">
         <v>0</v>
       </c>
       <c r="AG20" s="1">
-        <v>0</v>
+        <v>82.1</v>
       </c>
       <c r="AH20" s="1">
         <v>0</v>
       </c>
       <c r="AI20" s="1">
-        <v>0</v>
+        <v>83.3</v>
       </c>
       <c r="AJ20" s="1">
-        <v>0</v>
+        <v>83.3</v>
       </c>
       <c r="AK20" s="2">
         <v>2022</v>
@@ -16316,25 +16320,25 @@
         <v>0</v>
       </c>
       <c r="AD21" s="1">
-        <v>0</v>
+        <v>12.399999999999999</v>
       </c>
       <c r="AE21" s="1">
-        <v>0</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="AF21" s="1">
         <v>0</v>
       </c>
       <c r="AG21" s="1">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="AH21" s="1">
         <v>0</v>
       </c>
       <c r="AI21" s="1">
-        <v>0</v>
+        <v>12.399999999999999</v>
       </c>
       <c r="AJ21" s="1">
-        <v>0</v>
+        <v>12.399999999999999</v>
       </c>
       <c r="AK21" s="2">
         <v>2022</v>
@@ -16435,25 +16439,25 @@
         <v>0</v>
       </c>
       <c r="AD22" s="1">
-        <v>0</v>
+        <v>496.79999999999995</v>
       </c>
       <c r="AE22" s="1">
-        <v>0</v>
+        <v>372.4</v>
       </c>
       <c r="AF22" s="1">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AG22" s="1">
-        <v>0</v>
+        <v>122.7</v>
       </c>
       <c r="AH22" s="1">
         <v>0</v>
       </c>
       <c r="AI22" s="1">
-        <v>0</v>
+        <v>496.79999999999995</v>
       </c>
       <c r="AJ22" s="1">
-        <v>0</v>
+        <v>496.79999999999995</v>
       </c>
       <c r="AK22" s="2">
         <v>2022</v>
@@ -16494,7 +16498,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="1">
-        <v>0</v>
+        <v>39.9</v>
       </c>
       <c r="K23" s="1">
         <v>0</v>
@@ -16521,28 +16525,28 @@
         <v>0</v>
       </c>
       <c r="S23" s="1">
-        <v>0</v>
+        <v>39.9</v>
       </c>
       <c r="T23" s="1">
-        <v>0</v>
+        <v>194.29999999999998</v>
       </c>
       <c r="U23" s="1">
         <v>0</v>
       </c>
       <c r="V23" s="1">
-        <v>0</v>
+        <v>48.6</v>
       </c>
       <c r="W23" s="1">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="X23" s="1">
-        <v>0</v>
+        <v>10.7</v>
       </c>
       <c r="Y23" s="1">
-        <v>0</v>
+        <v>606.09999999999991</v>
       </c>
       <c r="Z23" s="1">
-        <v>0</v>
+        <v>298.7</v>
       </c>
       <c r="AA23" s="1">
         <v>0</v>
@@ -16551,28 +16555,28 @@
         <v>0</v>
       </c>
       <c r="AC23" s="1">
-        <v>0</v>
+        <v>307.39999999999998</v>
       </c>
       <c r="AD23" s="1">
-        <v>0</v>
+        <v>8660.6</v>
       </c>
       <c r="AE23" s="1">
-        <v>0</v>
+        <v>3624.8</v>
       </c>
       <c r="AF23" s="1">
-        <v>0</v>
+        <v>475.7</v>
       </c>
       <c r="AG23" s="1">
-        <v>0</v>
+        <v>4560.1000000000004</v>
       </c>
       <c r="AH23" s="1">
-        <v>0</v>
+        <v>39.9</v>
       </c>
       <c r="AI23" s="1">
-        <v>0</v>
+        <v>9461</v>
       </c>
       <c r="AJ23" s="1">
-        <v>0</v>
+        <v>9500.9</v>
       </c>
       <c r="AK23" s="2">
         <v>2022</v>
@@ -16658,7 +16662,7 @@
         <v>0</v>
       </c>
       <c r="Y24" s="1">
-        <v>0</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="Z24" s="1">
         <v>0</v>
@@ -16670,28 +16674,28 @@
         <v>0</v>
       </c>
       <c r="AC24" s="1">
-        <v>0</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AD24" s="1">
-        <v>0</v>
+        <v>52.900000000000006</v>
       </c>
       <c r="AE24" s="1">
-        <v>0</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="AF24" s="1">
         <v>0</v>
       </c>
       <c r="AG24" s="1">
-        <v>0</v>
+        <v>18.7</v>
       </c>
       <c r="AH24" s="1">
         <v>0</v>
       </c>
       <c r="AI24" s="1">
-        <v>0</v>
+        <v>57.800000000000004</v>
       </c>
       <c r="AJ24" s="1">
-        <v>0</v>
+        <v>57.800000000000004</v>
       </c>
       <c r="AK24" s="2">
         <v>2022</v>
@@ -16708,109 +16712,144 @@
         <v>56</v>
       </c>
       <c r="B25" s="1">
-        <v>0</v>
+        <f>SUM(B2,B5:B6,B9,B13:B24)</f>
+        <v>15267.900000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>0</v>
+        <f t="shared" ref="C25:AJ25" si="0">SUM(C2,C5:C6,C9,C13:C24)</f>
+        <v>544.29999999999995</v>
       </c>
       <c r="D25" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3305.4</v>
       </c>
       <c r="E25" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>192.00000000000003</v>
       </c>
       <c r="F25" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>36.599999999999994</v>
       </c>
       <c r="G25" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>20.8</v>
       </c>
       <c r="H25" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>4346.3999999999996</v>
       </c>
       <c r="I25" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>6822.4000000000005</v>
       </c>
       <c r="J25" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>28545.7</v>
       </c>
       <c r="K25" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7191.1</v>
       </c>
       <c r="L25" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>6290.9</v>
       </c>
       <c r="M25" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>676.59999999999991</v>
       </c>
       <c r="N25" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>53.8</v>
       </c>
       <c r="O25" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>113.2</v>
       </c>
       <c r="P25" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>257.7</v>
       </c>
       <c r="Q25" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>116.9</v>
       </c>
       <c r="R25" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>998.7</v>
       </c>
       <c r="S25" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>12846.8</v>
       </c>
       <c r="T25" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>150383.19999999995</v>
       </c>
       <c r="U25" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>92045.599999999991</v>
       </c>
       <c r="V25" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>25195.799999999996</v>
       </c>
       <c r="W25" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>32232.100000000002</v>
       </c>
       <c r="X25" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>909.69999999999993</v>
       </c>
       <c r="Y25" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>28481.500000000004</v>
       </c>
       <c r="Z25" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>18374.800000000003</v>
       </c>
       <c r="AA25" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>50.300000000000004</v>
       </c>
       <c r="AB25" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>9.1</v>
       </c>
       <c r="AC25" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>10047.299999999999</v>
       </c>
       <c r="AD25" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>93337.099999999991</v>
       </c>
       <c r="AE25" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>45277.599999999991</v>
       </c>
       <c r="AF25" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>6979.2</v>
       </c>
       <c r="AG25" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>41080.299999999981</v>
       </c>
       <c r="AH25" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>43813.600000000006</v>
       </c>
       <c r="AI25" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>272201.8</v>
       </c>
       <c r="AJ25" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>316015.39999999997</v>
       </c>
       <c r="AK25" s="2">
         <v>2022</v>
@@ -16823,6 +16862,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -16834,8 +16874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37856A1E-82E7-45AE-A2B0-C510B7D63887}">
   <dimension ref="A1:AM36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Y36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16961,40 +17001,40 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>53.400000000000006</v>
       </c>
       <c r="C2" s="1">
-        <v>0</v>
+        <v>20.7</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>0</v>
+        <v>743.2</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>179.79999999999998</v>
       </c>
       <c r="H2" s="1">
-        <v>0</v>
+        <v>563.4</v>
       </c>
       <c r="I2" s="1">
-        <v>0</v>
+        <v>106.9</v>
       </c>
       <c r="J2" s="1">
-        <v>0</v>
+        <v>7.9000000000000012</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="M2" s="1">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="N2" s="1">
         <v>0</v>
@@ -17003,13 +17043,13 @@
         <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>0</v>
+        <v>5219.1000000000004</v>
       </c>
       <c r="Q2" s="1">
-        <v>0</v>
+        <v>8928.2000000000007</v>
       </c>
       <c r="R2" s="1">
-        <v>0</v>
+        <v>166.1</v>
       </c>
       <c r="S2" s="1">
         <v>0</v>
@@ -17030,7 +17070,8 @@
         <v>0</v>
       </c>
       <c r="Y2" s="1">
-        <v>0</v>
+        <f t="shared" ref="Y2:Y36" si="0">SUM(B2,E2:F2,I2,M2:X2)</f>
+        <v>15267.900000000001</v>
       </c>
       <c r="Z2">
         <v>2022</v>
@@ -17059,16 +17100,16 @@
         <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>91.1</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
       </c>
       <c r="H3" s="1">
-        <v>0</v>
+        <v>91.1</v>
       </c>
       <c r="I3" s="1">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -17077,7 +17118,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -17089,10 +17130,10 @@
         <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="Q3" s="1">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="R3" s="1">
         <v>0</v>
@@ -17116,7 +17157,8 @@
         <v>0</v>
       </c>
       <c r="Y3" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>544.29999999999995</v>
       </c>
       <c r="Z3">
         <v>2022</v>
@@ -17133,31 +17175,31 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>0</v>
+        <v>31.6</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>84.9</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>84.9</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="J4" s="1">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="K4" s="1">
         <v>0</v>
@@ -17175,10 +17217,10 @@
         <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>0</v>
+        <v>1480.3</v>
       </c>
       <c r="Q4" s="1">
-        <v>0</v>
+        <v>1705.4</v>
       </c>
       <c r="R4" s="1">
         <v>0</v>
@@ -17202,7 +17244,8 @@
         <v>0</v>
       </c>
       <c r="Y4" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3305.4</v>
       </c>
       <c r="Z4">
         <v>2022</v>
@@ -17231,16 +17274,16 @@
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -17249,7 +17292,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -17261,10 +17304,10 @@
         <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>0</v>
+        <v>155.30000000000001</v>
       </c>
       <c r="Q5" s="1">
-        <v>0</v>
+        <v>28.8</v>
       </c>
       <c r="R5" s="1">
         <v>0</v>
@@ -17288,7 +17331,8 @@
         <v>0</v>
       </c>
       <c r="Y5" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>192.00000000000003</v>
       </c>
       <c r="Z5">
         <v>2022</v>
@@ -17317,16 +17361,16 @@
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -17335,7 +17379,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -17347,10 +17391,10 @@
         <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="Q6" s="1">
-        <v>0</v>
+        <v>19.8</v>
       </c>
       <c r="R6" s="1">
         <v>0</v>
@@ -17374,7 +17418,8 @@
         <v>0</v>
       </c>
       <c r="Y6" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>36.599999999999994</v>
       </c>
       <c r="Z6">
         <v>2022</v>
@@ -17403,19 +17448,19 @@
         <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="G7" s="1">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="H7" s="1">
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K7" s="1">
         <v>0</v>
@@ -17433,10 +17478,10 @@
         <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="Q7" s="1">
-        <v>0</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="R7" s="1">
         <v>0</v>
@@ -17460,7 +17505,8 @@
         <v>0</v>
       </c>
       <c r="Y7" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>20.8</v>
       </c>
       <c r="Z7">
         <v>2022</v>
@@ -17489,28 +17535,28 @@
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>0</v>
+        <v>100.5</v>
       </c>
       <c r="G8" s="1">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="H8" s="1">
-        <v>0</v>
+        <v>25.5</v>
       </c>
       <c r="I8" s="1">
-        <v>0</v>
+        <v>21.3</v>
       </c>
       <c r="J8" s="1">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="K8" s="1">
         <v>0</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>0</v>
+        <v>30.7</v>
       </c>
       <c r="N8" s="1">
         <v>0</v>
@@ -17519,13 +17565,13 @@
         <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>0</v>
+        <v>1349.8</v>
       </c>
       <c r="Q8" s="1">
-        <v>0</v>
+        <v>2790.1</v>
       </c>
       <c r="R8" s="1">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="S8" s="1">
         <v>0</v>
@@ -17546,7 +17592,8 @@
         <v>0</v>
       </c>
       <c r="Y8" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>4346.3999999999996</v>
       </c>
       <c r="Z8">
         <v>2022</v>
@@ -17563,40 +17610,40 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>0</v>
+        <v>21.8</v>
       </c>
       <c r="C9" s="1">
-        <v>0</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
+        <v>13.100000000000001</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>0</v>
+        <v>455.90000000000003</v>
       </c>
       <c r="G9" s="1">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="H9" s="1">
-        <v>0</v>
+        <v>446.8</v>
       </c>
       <c r="I9" s="1">
-        <v>0</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="J9" s="1">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="K9" s="1">
         <v>0</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="M9" s="1">
-        <v>0</v>
+        <v>20.3</v>
       </c>
       <c r="N9" s="1">
         <v>0</v>
@@ -17605,13 +17652,13 @@
         <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>0</v>
+        <v>2132.9</v>
       </c>
       <c r="Q9" s="1">
-        <v>0</v>
+        <v>4006.5</v>
       </c>
       <c r="R9" s="1">
-        <v>0</v>
+        <v>112.1</v>
       </c>
       <c r="S9" s="1">
         <v>0</v>
@@ -17632,7 +17679,8 @@
         <v>0</v>
       </c>
       <c r="Y9" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>6822.4000000000005</v>
       </c>
       <c r="Z9">
         <v>2022</v>
@@ -17649,37 +17697,37 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>0</v>
+        <v>1665.2</v>
       </c>
       <c r="C10" s="1">
-        <v>0</v>
+        <v>682.40000000000009</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>982.80000000000007</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="F10" s="1">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="G10" s="1">
-        <v>0</v>
+        <v>237.60000000000002</v>
       </c>
       <c r="H10" s="1">
-        <v>0</v>
+        <v>115.4</v>
       </c>
       <c r="I10" s="1">
-        <v>0</v>
+        <v>664.8</v>
       </c>
       <c r="J10" s="1">
-        <v>0</v>
+        <v>246.7</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>409.5</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -17688,16 +17736,16 @@
         <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>0</v>
+        <v>37.800000000000004</v>
       </c>
       <c r="P10" s="1">
-        <v>0</v>
+        <v>10977.900000000001</v>
       </c>
       <c r="Q10" s="1">
-        <v>0</v>
+        <v>14491.599999999999</v>
       </c>
       <c r="R10" s="1">
-        <v>0</v>
+        <v>311.7</v>
       </c>
       <c r="S10" s="1">
         <v>0</v>
@@ -17712,13 +17760,14 @@
         <v>0</v>
       </c>
       <c r="W10" s="1">
-        <v>0</v>
+        <v>39.9</v>
       </c>
       <c r="X10" s="1">
         <v>0</v>
       </c>
       <c r="Y10" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>28545.7</v>
       </c>
       <c r="Z10">
         <v>2022</v>
@@ -17735,28 +17784,28 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>0</v>
+        <v>123.6</v>
       </c>
       <c r="C11" s="1">
-        <v>0</v>
+        <v>50.7</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
+        <v>72.899999999999991</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>0</v>
+        <v>185.29999999999998</v>
       </c>
       <c r="G11" s="1">
-        <v>0</v>
+        <v>169.2</v>
       </c>
       <c r="H11" s="1">
-        <v>0</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="I11" s="1">
-        <v>0</v>
+        <v>29.1</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -17765,7 +17814,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>29.1</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -17777,13 +17826,13 @@
         <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>0</v>
+        <v>3069.8</v>
       </c>
       <c r="Q11" s="1">
-        <v>0</v>
+        <v>3759.7</v>
       </c>
       <c r="R11" s="1">
-        <v>0</v>
+        <v>23.6</v>
       </c>
       <c r="S11" s="1">
         <v>0</v>
@@ -17804,7 +17853,8 @@
         <v>0</v>
       </c>
       <c r="Y11" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7191.1</v>
       </c>
       <c r="Z11">
         <v>2022</v>
@@ -17821,28 +17871,28 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>0</v>
+        <v>70.7</v>
       </c>
       <c r="C12" s="1">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
+        <v>41.7</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>0</v>
+        <v>85.199999999999989</v>
       </c>
       <c r="G12" s="1">
-        <v>0</v>
+        <v>63.8</v>
       </c>
       <c r="H12" s="1">
-        <v>0</v>
+        <v>21.4</v>
       </c>
       <c r="I12" s="1">
-        <v>0</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -17851,7 +17901,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -17863,13 +17913,13 @@
         <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>0</v>
+        <v>2787.4</v>
       </c>
       <c r="Q12" s="1">
-        <v>0</v>
+        <v>3234.1</v>
       </c>
       <c r="R12" s="1">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="S12" s="1">
         <v>0</v>
@@ -17890,7 +17940,8 @@
         <v>0</v>
       </c>
       <c r="Y12" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>6290.9</v>
       </c>
       <c r="Z12">
         <v>2022</v>
@@ -17907,37 +17958,37 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="C13" s="1">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="E13" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F13" s="1">
-        <v>0</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="G13" s="1">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H13" s="1">
-        <v>0</v>
+        <v>14.3</v>
       </c>
       <c r="I13" s="1">
-        <v>0</v>
+        <v>114.8</v>
       </c>
       <c r="J13" s="1">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="K13" s="1">
         <v>0</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>111.7</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -17946,10 +17997,10 @@
         <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P13" s="1">
-        <v>0</v>
+        <v>540.4</v>
       </c>
       <c r="Q13" s="1">
         <v>0</v>
@@ -17976,7 +18027,8 @@
         <v>0</v>
       </c>
       <c r="Y13" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>676.59999999999991</v>
       </c>
       <c r="Z13">
         <v>2022</v>
@@ -17993,28 +18045,28 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="C14" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D14" s="1">
-        <v>0</v>
+        <v>0.79999999999999993</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I14" s="1">
-        <v>0</v>
+        <v>19.7</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
@@ -18023,7 +18075,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>19.7</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -18035,13 +18087,13 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>0</v>
+        <v>29.1</v>
       </c>
       <c r="Q14" s="1">
         <v>0</v>
       </c>
       <c r="R14" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="S14" s="1">
         <v>0</v>
@@ -18062,7 +18114,8 @@
         <v>0</v>
       </c>
       <c r="Y14" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>53.8</v>
       </c>
       <c r="Z14">
         <v>2022</v>
@@ -18079,37 +18132,37 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="C15" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D15" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F15" s="1">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="G15" s="1">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="H15" s="1">
         <v>0</v>
       </c>
       <c r="I15" s="1">
-        <v>0</v>
+        <v>37.9</v>
       </c>
       <c r="J15" s="1">
-        <v>0</v>
+        <v>12.3</v>
       </c>
       <c r="K15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="1">
-        <v>0</v>
+        <v>24.7</v>
       </c>
       <c r="M15" s="1">
         <v>0</v>
@@ -18121,7 +18174,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>0</v>
+        <v>72.2</v>
       </c>
       <c r="Q15" s="1">
         <v>0</v>
@@ -18148,7 +18201,8 @@
         <v>0</v>
       </c>
       <c r="Y15" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>113.2</v>
       </c>
       <c r="Z15">
         <v>2022</v>
@@ -18177,25 +18231,25 @@
         <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
       </c>
       <c r="H16" s="1">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="I16" s="1">
-        <v>0</v>
+        <v>95.7</v>
       </c>
       <c r="J16" s="1">
-        <v>0</v>
+        <v>48.2</v>
       </c>
       <c r="K16" s="1">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="L16" s="1">
-        <v>0</v>
+        <v>39.9</v>
       </c>
       <c r="M16" s="1">
         <v>0</v>
@@ -18207,7 +18261,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>0</v>
+        <v>160.5</v>
       </c>
       <c r="Q16" s="1">
         <v>0</v>
@@ -18234,7 +18288,8 @@
         <v>0</v>
       </c>
       <c r="Y16" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>257.7</v>
       </c>
       <c r="Z16">
         <v>2022</v>
@@ -18251,37 +18306,37 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="C17" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D17" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>0</v>
+        <v>12.2</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
       </c>
       <c r="H17" s="1">
-        <v>0</v>
+        <v>12.2</v>
       </c>
       <c r="I17" s="1">
-        <v>0</v>
+        <v>10.4</v>
       </c>
       <c r="J17" s="1">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="K17" s="1">
         <v>0</v>
       </c>
       <c r="L17" s="1">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="M17" s="1">
         <v>0</v>
@@ -18293,10 +18348,10 @@
         <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>0</v>
+        <v>83.9</v>
       </c>
       <c r="Q17" s="1">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="R17" s="1">
         <v>0</v>
@@ -18320,7 +18375,8 @@
         <v>0</v>
       </c>
       <c r="Y17" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>116.9</v>
       </c>
       <c r="Z17">
         <v>2022</v>
@@ -18349,19 +18405,19 @@
         <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>0</v>
+        <v>46.9</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
       </c>
       <c r="H18" s="1">
-        <v>0</v>
+        <v>46.9</v>
       </c>
       <c r="I18" s="1">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="J18" s="1">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="K18" s="1">
         <v>0</v>
@@ -18379,7 +18435,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>0</v>
+        <v>949.1</v>
       </c>
       <c r="Q18" s="1">
         <v>0</v>
@@ -18406,7 +18462,8 @@
         <v>0</v>
       </c>
       <c r="Y18" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>998.7</v>
       </c>
       <c r="Z18">
         <v>2022</v>
@@ -18423,16 +18480,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>0</v>
+        <v>1463.9</v>
       </c>
       <c r="C19" s="1">
-        <v>0</v>
+        <v>600.20000000000005</v>
       </c>
       <c r="D19" s="1">
-        <v>0</v>
+        <v>863.7</v>
       </c>
       <c r="E19" s="1">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -18444,16 +18501,16 @@
         <v>0</v>
       </c>
       <c r="I19" s="1">
-        <v>0</v>
+        <v>287.39999999999998</v>
       </c>
       <c r="J19" s="1">
-        <v>0</v>
+        <v>172.5</v>
       </c>
       <c r="K19" s="1">
         <v>0</v>
       </c>
       <c r="L19" s="1">
-        <v>0</v>
+        <v>114.8</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -18462,16 +18519,16 @@
         <v>0</v>
       </c>
       <c r="O19" s="1">
-        <v>0</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="P19" s="1">
-        <v>0</v>
+        <v>3285.5</v>
       </c>
       <c r="Q19" s="1">
-        <v>0</v>
+        <v>7488.7</v>
       </c>
       <c r="R19" s="1">
-        <v>0</v>
+        <v>240.9</v>
       </c>
       <c r="S19" s="1">
         <v>0</v>
@@ -18486,13 +18543,14 @@
         <v>0</v>
       </c>
       <c r="W19" s="1">
-        <v>0</v>
+        <v>39.9</v>
       </c>
       <c r="X19" s="1">
         <v>0</v>
       </c>
       <c r="Y19" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>12846.8</v>
       </c>
       <c r="Z19">
         <v>2022</v>
@@ -18509,58 +18567,58 @@
         <v>57</v>
       </c>
       <c r="B20" s="1">
-        <v>0</v>
+        <v>5347.3</v>
       </c>
       <c r="C20" s="1">
-        <v>0</v>
+        <v>2206.8999999999996</v>
       </c>
       <c r="D20" s="1">
-        <v>0</v>
+        <v>3140.3999999999996</v>
       </c>
       <c r="E20" s="1">
-        <v>0</v>
+        <v>22.2</v>
       </c>
       <c r="F20" s="1">
-        <v>0</v>
+        <v>435.2</v>
       </c>
       <c r="G20" s="1">
-        <v>0</v>
+        <v>286.79999999999995</v>
       </c>
       <c r="H20" s="1">
-        <v>0</v>
+        <v>148.4</v>
       </c>
       <c r="I20" s="1">
-        <v>0</v>
+        <v>578.20000000000005</v>
       </c>
       <c r="J20" s="1">
-        <v>0</v>
+        <v>477.1</v>
       </c>
       <c r="K20" s="1">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="L20" s="1">
-        <v>0</v>
+        <v>98.3</v>
       </c>
       <c r="M20" s="1">
-        <v>0</v>
+        <v>59.9</v>
       </c>
       <c r="N20" s="1">
-        <v>0</v>
+        <v>52.2</v>
       </c>
       <c r="O20" s="1">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="P20" s="1">
-        <v>0</v>
+        <v>69269.099999999991</v>
       </c>
       <c r="Q20" s="1">
-        <v>0</v>
+        <v>72624.3</v>
       </c>
       <c r="R20" s="1">
-        <v>0</v>
+        <v>1725.5</v>
       </c>
       <c r="S20" s="1">
-        <v>0</v>
+        <v>74.3</v>
       </c>
       <c r="T20" s="1">
         <v>0</v>
@@ -18572,13 +18630,14 @@
         <v>0</v>
       </c>
       <c r="W20" s="1">
-        <v>0</v>
+        <v>194.29999999999998</v>
       </c>
       <c r="X20" s="1">
         <v>0</v>
       </c>
       <c r="Y20" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>150383.19999999995</v>
       </c>
       <c r="Z20">
         <v>2022</v>
@@ -18595,55 +18654,55 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>0</v>
+        <v>5082.8999999999996</v>
       </c>
       <c r="C21" s="1">
-        <v>0</v>
+        <v>2099.1999999999998</v>
       </c>
       <c r="D21" s="1">
-        <v>0</v>
+        <v>2983.7</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>0</v>
+        <v>300.59999999999997</v>
       </c>
       <c r="G21" s="1">
-        <v>0</v>
+        <v>278.39999999999998</v>
       </c>
       <c r="H21" s="1">
-        <v>0</v>
+        <v>22.2</v>
       </c>
       <c r="I21" s="1">
-        <v>0</v>
+        <v>261.8</v>
       </c>
       <c r="J21" s="1">
-        <v>0</v>
+        <v>180.1</v>
       </c>
       <c r="K21" s="1">
         <v>0</v>
       </c>
       <c r="L21" s="1">
-        <v>0</v>
+        <v>81.7</v>
       </c>
       <c r="M21" s="1">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="N21" s="1">
-        <v>0</v>
+        <v>13.3</v>
       </c>
       <c r="O21" s="1">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="P21" s="1">
-        <v>0</v>
+        <v>44614.7</v>
       </c>
       <c r="Q21" s="1">
-        <v>0</v>
+        <v>41538.300000000003</v>
       </c>
       <c r="R21" s="1">
-        <v>0</v>
+        <v>174.9</v>
       </c>
       <c r="S21" s="1">
         <v>0</v>
@@ -18664,7 +18723,8 @@
         <v>0</v>
       </c>
       <c r="Y21" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>92045.599999999991</v>
       </c>
       <c r="Z21">
         <v>2022</v>
@@ -18681,31 +18741,31 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>0</v>
+        <v>141.6</v>
       </c>
       <c r="C22" s="1">
-        <v>0</v>
+        <v>58.6</v>
       </c>
       <c r="D22" s="1">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="E22" s="1">
-        <v>0</v>
+        <v>22.2</v>
       </c>
       <c r="F22" s="1">
-        <v>0</v>
+        <v>49.3</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
       </c>
       <c r="H22" s="1">
-        <v>0</v>
+        <v>49.3</v>
       </c>
       <c r="I22" s="1">
-        <v>0</v>
+        <v>13.1</v>
       </c>
       <c r="J22" s="1">
-        <v>0</v>
+        <v>13.1</v>
       </c>
       <c r="K22" s="1">
         <v>0</v>
@@ -18723,16 +18783,16 @@
         <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>0</v>
+        <v>11159.3</v>
       </c>
       <c r="Q22" s="1">
-        <v>0</v>
+        <v>13347.1</v>
       </c>
       <c r="R22" s="1">
-        <v>0</v>
+        <v>340.3</v>
       </c>
       <c r="S22" s="1">
-        <v>0</v>
+        <v>74.3</v>
       </c>
       <c r="T22" s="1">
         <v>0</v>
@@ -18744,13 +18804,14 @@
         <v>0</v>
       </c>
       <c r="W22" s="1">
-        <v>0</v>
+        <v>48.6</v>
       </c>
       <c r="X22" s="1">
         <v>0</v>
       </c>
       <c r="Y22" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>25195.799999999996</v>
       </c>
       <c r="Z22">
         <v>2022</v>
@@ -18767,55 +18828,55 @@
         <v>21</v>
       </c>
       <c r="B23" s="1">
-        <v>0</v>
+        <v>122.8</v>
       </c>
       <c r="C23" s="1">
-        <v>0</v>
+        <v>49.1</v>
       </c>
       <c r="D23" s="1">
-        <v>0</v>
+        <v>73.699999999999989</v>
       </c>
       <c r="E23" s="1">
         <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>0</v>
+        <v>85.300000000000011</v>
       </c>
       <c r="G23" s="1">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="H23" s="1">
-        <v>0</v>
+        <v>76.900000000000006</v>
       </c>
       <c r="I23" s="1">
-        <v>0</v>
+        <v>264.5</v>
       </c>
       <c r="J23" s="1">
-        <v>0</v>
+        <v>247.9</v>
       </c>
       <c r="K23" s="1">
         <v>0</v>
       </c>
       <c r="L23" s="1">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="M23" s="1">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="N23" s="1">
-        <v>0</v>
+        <v>37.4</v>
       </c>
       <c r="O23" s="1">
         <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>0</v>
+        <v>12990.7</v>
       </c>
       <c r="Q23" s="1">
-        <v>0</v>
+        <v>17420.400000000001</v>
       </c>
       <c r="R23" s="1">
-        <v>0</v>
+        <v>1174.5</v>
       </c>
       <c r="S23" s="1">
         <v>0</v>
@@ -18830,13 +18891,14 @@
         <v>0</v>
       </c>
       <c r="W23" s="1">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="X23" s="1">
         <v>0</v>
       </c>
       <c r="Y23" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>32232.100000000002</v>
       </c>
       <c r="Z23">
         <v>2022</v>
@@ -18874,34 +18936,34 @@
         <v>0</v>
       </c>
       <c r="I24" s="1">
-        <v>0</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="J24" s="1">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="K24" s="1">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="L24" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
       </c>
       <c r="N24" s="1">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="O24" s="1">
         <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>0</v>
+        <v>504.4</v>
       </c>
       <c r="Q24" s="1">
-        <v>0</v>
+        <v>318.5</v>
       </c>
       <c r="R24" s="1">
-        <v>0</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="S24" s="1">
         <v>0</v>
@@ -18916,13 +18978,14 @@
         <v>0</v>
       </c>
       <c r="W24" s="1">
-        <v>0</v>
+        <v>10.7</v>
       </c>
       <c r="X24" s="1">
         <v>0</v>
       </c>
       <c r="Y24" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>909.69999999999993</v>
       </c>
       <c r="Z24">
         <v>2022</v>
@@ -18939,55 +19002,55 @@
         <v>23</v>
       </c>
       <c r="B25" s="1">
-        <v>0</v>
+        <v>162.60000000000002</v>
       </c>
       <c r="C25" s="1">
-        <v>0</v>
+        <v>67.900000000000006</v>
       </c>
       <c r="D25" s="1">
-        <v>0</v>
+        <v>94.7</v>
       </c>
       <c r="E25" s="1">
-        <v>0</v>
+        <v>767.3</v>
       </c>
       <c r="F25" s="1">
-        <v>0</v>
+        <v>52.099999999999994</v>
       </c>
       <c r="G25" s="1">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H25" s="1">
-        <v>0</v>
+        <v>44.599999999999994</v>
       </c>
       <c r="I25" s="1">
-        <v>0</v>
+        <v>648.70000000000005</v>
       </c>
       <c r="J25" s="1">
-        <v>0</v>
+        <v>628.69999999999993</v>
       </c>
       <c r="K25" s="1">
-        <v>0</v>
+        <v>12.799999999999999</v>
       </c>
       <c r="L25" s="1">
-        <v>0</v>
+        <v>7.3999999999999995</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
       </c>
       <c r="N25" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O25" s="1">
         <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>0</v>
+        <v>13161.100000000002</v>
       </c>
       <c r="Q25" s="1">
-        <v>0</v>
+        <v>12363.7</v>
       </c>
       <c r="R25" s="1">
-        <v>0</v>
+        <v>712</v>
       </c>
       <c r="S25" s="1">
         <v>0</v>
@@ -19002,13 +19065,14 @@
         <v>0</v>
       </c>
       <c r="W25" s="1">
-        <v>0</v>
+        <v>606.09999999999991</v>
       </c>
       <c r="X25" s="1">
-        <v>0</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="Y25" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>28481.500000000004</v>
       </c>
       <c r="Z25">
         <v>2022</v>
@@ -19025,55 +19089,55 @@
         <v>24</v>
       </c>
       <c r="B26" s="1">
-        <v>0</v>
+        <v>116.9</v>
       </c>
       <c r="C26" s="1">
-        <v>0</v>
+        <v>47.7</v>
       </c>
       <c r="D26" s="1">
-        <v>0</v>
+        <v>69.2</v>
       </c>
       <c r="E26" s="1">
-        <v>0</v>
+        <v>21.5</v>
       </c>
       <c r="F26" s="1">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="G26" s="1">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="H26" s="1">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="I26" s="1">
-        <v>0</v>
+        <v>470.3</v>
       </c>
       <c r="J26" s="1">
-        <v>0</v>
+        <v>451.4</v>
       </c>
       <c r="K26" s="1">
-        <v>0</v>
+        <v>11.7</v>
       </c>
       <c r="L26" s="1">
-        <v>0</v>
+        <v>7.3999999999999995</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
       </c>
       <c r="N26" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O26" s="1">
         <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>0</v>
+        <v>8917.6</v>
       </c>
       <c r="Q26" s="1">
-        <v>0</v>
+        <v>7868</v>
       </c>
       <c r="R26" s="1">
-        <v>0</v>
+        <v>669.7</v>
       </c>
       <c r="S26" s="1">
         <v>0</v>
@@ -19088,13 +19152,14 @@
         <v>0</v>
       </c>
       <c r="W26" s="1">
-        <v>0</v>
+        <v>298.7</v>
       </c>
       <c r="X26" s="1">
         <v>0</v>
       </c>
       <c r="Y26" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>18374.800000000003</v>
       </c>
       <c r="Z26">
         <v>2022</v>
@@ -19134,19 +19199,19 @@
         <v>0</v>
       </c>
       <c r="F27" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="G27" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="H27" s="1">
         <v>0</v>
       </c>
       <c r="I27" s="1">
-        <v>0</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="J27" s="1">
-        <v>0</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="K27" s="1">
         <v>0</v>
@@ -19164,7 +19229,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="1">
-        <v>0</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="Q27" s="1">
         <v>0</v>
@@ -19191,7 +19256,8 @@
         <v>0</v>
       </c>
       <c r="Y27" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>50.300000000000004</v>
       </c>
       <c r="Z27">
         <v>2022</v>
@@ -19220,22 +19286,22 @@
         <v>0</v>
       </c>
       <c r="F28" s="1">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="G28" s="1">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="H28" s="1">
         <v>0</v>
       </c>
       <c r="I28" s="1">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J28" s="1">
         <v>0</v>
       </c>
       <c r="K28" s="1">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L28" s="1">
         <v>0</v>
@@ -19250,7 +19316,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="1">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="Q28" s="1">
         <v>0</v>
@@ -19277,7 +19343,8 @@
         <v>0</v>
       </c>
       <c r="Y28" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>9.1</v>
       </c>
       <c r="Z28">
         <v>2022</v>
@@ -19294,31 +19361,31 @@
         <v>27</v>
       </c>
       <c r="B29" s="1">
-        <v>0</v>
+        <v>45.7</v>
       </c>
       <c r="C29" s="1">
-        <v>0</v>
+        <v>20.2</v>
       </c>
       <c r="D29" s="1">
-        <v>0</v>
+        <v>25.500000000000004</v>
       </c>
       <c r="E29" s="1">
-        <v>0</v>
+        <v>745.8</v>
       </c>
       <c r="F29" s="1">
-        <v>0</v>
+        <v>41.699999999999996</v>
       </c>
       <c r="G29" s="1">
-        <v>0</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="H29" s="1">
-        <v>0</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="I29" s="1">
-        <v>0</v>
+        <v>167.6</v>
       </c>
       <c r="J29" s="1">
-        <v>0</v>
+        <v>167.6</v>
       </c>
       <c r="K29" s="1">
         <v>0</v>
@@ -19336,13 +19403,13 @@
         <v>0</v>
       </c>
       <c r="P29" s="1">
-        <v>0</v>
+        <v>4196.2</v>
       </c>
       <c r="Q29" s="1">
-        <v>0</v>
+        <v>4495.7</v>
       </c>
       <c r="R29" s="1">
-        <v>0</v>
+        <v>42.3</v>
       </c>
       <c r="S29" s="1">
         <v>0</v>
@@ -19357,13 +19424,14 @@
         <v>0</v>
       </c>
       <c r="W29" s="1">
-        <v>0</v>
+        <v>307.39999999999998</v>
       </c>
       <c r="X29" s="1">
-        <v>0</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="Y29" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>10047.299999999999</v>
       </c>
       <c r="Z29">
         <v>2022</v>
@@ -19380,34 +19448,34 @@
         <v>28</v>
       </c>
       <c r="B30" s="1">
-        <v>0</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C30" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D30" s="1">
-        <v>0</v>
+        <v>2.9000000000000004</v>
       </c>
       <c r="E30" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F30" s="1">
-        <v>0</v>
+        <v>9056</v>
       </c>
       <c r="G30" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H30" s="1">
-        <v>0</v>
+        <v>9053</v>
       </c>
       <c r="I30" s="1">
-        <v>0</v>
+        <v>901.3</v>
       </c>
       <c r="J30" s="1">
-        <v>0</v>
+        <v>361</v>
       </c>
       <c r="K30" s="1">
-        <v>0</v>
+        <v>540.29999999999995</v>
       </c>
       <c r="L30" s="1">
         <v>0</v>
@@ -19416,40 +19484,41 @@
         <v>0</v>
       </c>
       <c r="N30" s="1">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="O30" s="1">
         <v>0</v>
       </c>
       <c r="P30" s="1">
-        <v>0</v>
+        <v>27770.1</v>
       </c>
       <c r="Q30" s="1">
-        <v>0</v>
+        <v>45130.399999999994</v>
       </c>
       <c r="R30" s="1">
-        <v>0</v>
+        <v>52.9</v>
       </c>
       <c r="S30" s="1">
-        <v>0</v>
+        <v>1101.3</v>
       </c>
       <c r="T30" s="1">
-        <v>0</v>
+        <v>83.3</v>
       </c>
       <c r="U30" s="1">
-        <v>0</v>
+        <v>12.399999999999999</v>
       </c>
       <c r="V30" s="1">
-        <v>0</v>
+        <v>496.79999999999995</v>
       </c>
       <c r="W30" s="1">
-        <v>0</v>
+        <v>8660.6</v>
       </c>
       <c r="X30" s="1">
-        <v>0</v>
+        <v>52.900000000000006</v>
       </c>
       <c r="Y30" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>93337.099999999991</v>
       </c>
       <c r="Z30">
         <v>2022</v>
@@ -19466,34 +19535,34 @@
         <v>29</v>
       </c>
       <c r="B31" s="1">
-        <v>0</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C31" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D31" s="1">
-        <v>0</v>
+        <v>2.9000000000000004</v>
       </c>
       <c r="E31" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F31" s="1">
-        <v>0</v>
+        <v>153.4</v>
       </c>
       <c r="G31" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H31" s="1">
-        <v>0</v>
+        <v>150.4</v>
       </c>
       <c r="I31" s="1">
-        <v>0</v>
+        <v>721.3</v>
       </c>
       <c r="J31" s="1">
-        <v>0</v>
+        <v>313.8</v>
       </c>
       <c r="K31" s="1">
-        <v>0</v>
+        <v>407.5</v>
       </c>
       <c r="L31" s="1">
         <v>0</v>
@@ -19508,34 +19577,35 @@
         <v>0</v>
       </c>
       <c r="P31" s="1">
-        <v>0</v>
+        <v>19254.3</v>
       </c>
       <c r="Q31" s="1">
-        <v>0</v>
+        <v>20804.3</v>
       </c>
       <c r="R31" s="1">
-        <v>0</v>
+        <v>52.9</v>
       </c>
       <c r="S31" s="1">
-        <v>0</v>
+        <v>241.2</v>
       </c>
       <c r="T31" s="1">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="U31" s="1">
-        <v>0</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="V31" s="1">
-        <v>0</v>
+        <v>372.4</v>
       </c>
       <c r="W31" s="1">
-        <v>0</v>
+        <v>3624.8</v>
       </c>
       <c r="X31" s="1">
-        <v>0</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="Y31" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>45277.599999999991</v>
       </c>
       <c r="Z31">
         <v>2022</v>
@@ -19564,22 +19634,22 @@
         <v>0</v>
       </c>
       <c r="F32" s="1">
-        <v>0</v>
+        <v>1208.2</v>
       </c>
       <c r="G32" s="1">
         <v>0</v>
       </c>
       <c r="H32" s="1">
-        <v>0</v>
+        <v>1208.2</v>
       </c>
       <c r="I32" s="1">
-        <v>0</v>
+        <v>110.3</v>
       </c>
       <c r="J32" s="1">
-        <v>0</v>
+        <v>25.3</v>
       </c>
       <c r="K32" s="1">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="L32" s="1">
         <v>0</v>
@@ -19594,10 +19664,10 @@
         <v>0</v>
       </c>
       <c r="P32" s="1">
-        <v>0</v>
+        <v>2685.3</v>
       </c>
       <c r="Q32" s="1">
-        <v>0</v>
+        <v>2498</v>
       </c>
       <c r="R32" s="1">
         <v>0</v>
@@ -19612,16 +19682,17 @@
         <v>0</v>
       </c>
       <c r="V32" s="1">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="W32" s="1">
-        <v>0</v>
+        <v>475.7</v>
       </c>
       <c r="X32" s="1">
         <v>0</v>
       </c>
       <c r="Y32" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>6979.2</v>
       </c>
       <c r="Z32">
         <v>2022</v>
@@ -19647,25 +19718,25 @@
         <v>0</v>
       </c>
       <c r="E33" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F33" s="1">
-        <v>0</v>
+        <v>7694.4</v>
       </c>
       <c r="G33" s="1">
         <v>0</v>
       </c>
       <c r="H33" s="1">
-        <v>0</v>
+        <v>7694.4</v>
       </c>
       <c r="I33" s="1">
-        <v>0</v>
+        <v>69.7</v>
       </c>
       <c r="J33" s="1">
-        <v>0</v>
+        <v>21.9</v>
       </c>
       <c r="K33" s="1">
-        <v>0</v>
+        <v>47.8</v>
       </c>
       <c r="L33" s="1">
         <v>0</v>
@@ -19674,40 +19745,41 @@
         <v>0</v>
       </c>
       <c r="N33" s="1">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="O33" s="1">
         <v>0</v>
       </c>
       <c r="P33" s="1">
-        <v>0</v>
+        <v>5830.5</v>
       </c>
       <c r="Q33" s="1">
-        <v>0</v>
+        <v>21828.1</v>
       </c>
       <c r="R33" s="1">
         <v>0</v>
       </c>
       <c r="S33" s="1">
-        <v>0</v>
+        <v>860.1</v>
       </c>
       <c r="T33" s="1">
-        <v>0</v>
+        <v>82.1</v>
       </c>
       <c r="U33" s="1">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="V33" s="1">
-        <v>0</v>
+        <v>122.7</v>
       </c>
       <c r="W33" s="1">
-        <v>0</v>
+        <v>4560.1000000000004</v>
       </c>
       <c r="X33" s="1">
-        <v>0</v>
+        <v>18.7</v>
       </c>
       <c r="Y33" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>41080.299999999981</v>
       </c>
       <c r="Z33">
         <v>2022</v>
@@ -19724,55 +19796,55 @@
         <v>58</v>
       </c>
       <c r="B34" s="1">
-        <v>0</v>
+        <v>1718.6000000000001</v>
       </c>
       <c r="C34" s="1">
-        <v>0</v>
+        <v>703.10000000000014</v>
       </c>
       <c r="D34" s="1">
-        <v>0</v>
+        <v>1015.5000000000001</v>
       </c>
       <c r="E34" s="1">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="F34" s="1">
-        <v>0</v>
+        <v>1096.2</v>
       </c>
       <c r="G34" s="1">
-        <v>0</v>
+        <v>417.4</v>
       </c>
       <c r="H34" s="1">
-        <v>0</v>
+        <v>678.8</v>
       </c>
       <c r="I34" s="1">
-        <v>0</v>
+        <v>771.69999999999993</v>
       </c>
       <c r="J34" s="1">
-        <v>0</v>
+        <v>254.6</v>
       </c>
       <c r="K34" s="1">
-        <v>0</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="L34" s="1">
-        <v>0</v>
+        <v>508.5</v>
       </c>
       <c r="M34" s="1">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="N34" s="1">
         <v>0</v>
       </c>
       <c r="O34" s="1">
-        <v>0</v>
+        <v>37.800000000000004</v>
       </c>
       <c r="P34" s="1">
-        <v>0</v>
+        <v>16197.000000000002</v>
       </c>
       <c r="Q34" s="1">
-        <v>0</v>
+        <v>23419.8</v>
       </c>
       <c r="R34" s="1">
-        <v>0</v>
+        <v>477.79999999999995</v>
       </c>
       <c r="S34" s="1">
         <v>0</v>
@@ -19787,13 +19859,14 @@
         <v>0</v>
       </c>
       <c r="W34" s="1">
-        <v>0</v>
+        <v>39.9</v>
       </c>
       <c r="X34" s="1">
         <v>0</v>
       </c>
       <c r="Y34" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>43813.600000000006</v>
       </c>
       <c r="Z34">
         <v>2022</v>
@@ -19810,76 +19883,77 @@
         <v>59</v>
       </c>
       <c r="B35" s="1">
-        <v>0</v>
+        <v>5514.8</v>
       </c>
       <c r="C35" s="1">
-        <v>0</v>
+        <v>2276.7999999999997</v>
       </c>
       <c r="D35" s="1">
-        <v>0</v>
+        <v>3237.9999999999995</v>
       </c>
       <c r="E35" s="1">
-        <v>0</v>
+        <v>798.5</v>
       </c>
       <c r="F35" s="1">
-        <v>0</v>
+        <v>9543.2999999999993</v>
       </c>
       <c r="G35" s="1">
-        <v>0</v>
+        <v>297.29999999999995</v>
       </c>
       <c r="H35" s="1">
-        <v>0</v>
+        <v>9246</v>
       </c>
       <c r="I35" s="1">
-        <v>0</v>
+        <v>2128.1999999999998</v>
       </c>
       <c r="J35" s="1">
-        <v>0</v>
+        <v>1466.8</v>
       </c>
       <c r="K35" s="1">
-        <v>0</v>
+        <v>555.79999999999995</v>
       </c>
       <c r="L35" s="1">
-        <v>0</v>
+        <v>105.7</v>
       </c>
       <c r="M35" s="1">
-        <v>0</v>
+        <v>59.9</v>
       </c>
       <c r="N35" s="1">
-        <v>0</v>
+        <v>60.400000000000006</v>
       </c>
       <c r="O35" s="1">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="P35" s="1">
-        <v>0</v>
+        <v>110200.29999999999</v>
       </c>
       <c r="Q35" s="1">
-        <v>0</v>
+        <v>130118.39999999999</v>
       </c>
       <c r="R35" s="1">
-        <v>0</v>
+        <v>2490.4</v>
       </c>
       <c r="S35" s="1">
-        <v>0</v>
+        <v>1175.5999999999999</v>
       </c>
       <c r="T35" s="1">
-        <v>0</v>
+        <v>83.3</v>
       </c>
       <c r="U35" s="1">
-        <v>0</v>
+        <v>12.399999999999999</v>
       </c>
       <c r="V35" s="1">
-        <v>0</v>
+        <v>496.79999999999995</v>
       </c>
       <c r="W35" s="1">
-        <v>0</v>
+        <v>9461</v>
       </c>
       <c r="X35" s="1">
-        <v>0</v>
+        <v>57.800000000000004</v>
       </c>
       <c r="Y35" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>272201.8</v>
       </c>
       <c r="Z35">
         <v>2022</v>
@@ -19896,76 +19970,77 @@
         <v>32</v>
       </c>
       <c r="B36" s="1">
-        <v>0</v>
+        <v>7233.4000000000005</v>
       </c>
       <c r="C36" s="1">
-        <v>0</v>
+        <v>2979.9</v>
       </c>
       <c r="D36" s="1">
-        <v>0</v>
+        <v>4253.4999999999991</v>
       </c>
       <c r="E36" s="1">
-        <v>0</v>
+        <v>802.3</v>
       </c>
       <c r="F36" s="1">
-        <v>0</v>
+        <v>10639.5</v>
       </c>
       <c r="G36" s="1">
-        <v>0</v>
+        <v>714.69999999999993</v>
       </c>
       <c r="H36" s="1">
-        <v>0</v>
+        <v>9924.7999999999993</v>
       </c>
       <c r="I36" s="1">
-        <v>0</v>
+        <v>2899.8999999999996</v>
       </c>
       <c r="J36" s="1">
-        <v>0</v>
+        <v>1721.3999999999999</v>
       </c>
       <c r="K36" s="1">
-        <v>0</v>
+        <v>564.59999999999991</v>
       </c>
       <c r="L36" s="1">
-        <v>0</v>
+        <v>614.20000000000005</v>
       </c>
       <c r="M36" s="1">
-        <v>0</v>
+        <v>110.9</v>
       </c>
       <c r="N36" s="1">
-        <v>0</v>
+        <v>60.400000000000006</v>
       </c>
       <c r="O36" s="1">
-        <v>0</v>
+        <v>38.500000000000007</v>
       </c>
       <c r="P36" s="1">
-        <v>0</v>
+        <v>126397.29999999999</v>
       </c>
       <c r="Q36" s="1">
-        <v>0</v>
+        <v>153538.19999999998</v>
       </c>
       <c r="R36" s="1">
-        <v>0</v>
+        <v>2968.2</v>
       </c>
       <c r="S36" s="1">
-        <v>0</v>
+        <v>1175.5999999999999</v>
       </c>
       <c r="T36" s="1">
-        <v>0</v>
+        <v>83.3</v>
       </c>
       <c r="U36" s="1">
-        <v>0</v>
+        <v>12.399999999999999</v>
       </c>
       <c r="V36" s="1">
-        <v>0</v>
+        <v>496.79999999999995</v>
       </c>
       <c r="W36" s="1">
-        <v>0</v>
+        <v>9500.9</v>
       </c>
       <c r="X36" s="1">
-        <v>0</v>
+        <v>57.800000000000004</v>
       </c>
       <c r="Y36" s="1">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>316015.39999999997</v>
       </c>
       <c r="Z36">
         <v>2022</v>

--- a/Base de Dados/Dados Tratados/NOVEMBRO_2022.xlsx
+++ b/Base de Dados/Dados Tratados/NOVEMBRO_2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projetos\GitHub\Projeto-Painel-de-BI-Dados-Agricolas\Base de Dados\Dados Tratados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB4C557-812C-491F-A053-C8B8FB9FC58E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94FF7EC-6B73-419A-9C4C-C5D778703D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1129,9 +1129,7 @@
     <tableColumn id="22" xr3:uid="{49B2C1E3-0396-4037-BB4B-32C18FDB6CC7}" name="CEVADA" dataDxfId="5"/>
     <tableColumn id="23" xr3:uid="{C10C34AB-D106-4FB2-B097-C90EF653E9E5}" name="TRIGO" dataDxfId="4"/>
     <tableColumn id="24" xr3:uid="{80045204-E6E2-42D6-9449-CCD3B9641988}" name="TRITICALE" dataDxfId="3"/>
-    <tableColumn id="25" xr3:uid="{0FB9C96B-75F4-4026-A109-A799A828C96B}" name="GERAL" dataDxfId="2">
-      <calculatedColumnFormula>SUM(B2,E2:F2,I2,M2:X2)</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="25" xr3:uid="{0FB9C96B-75F4-4026-A109-A799A828C96B}" name="GERAL" dataDxfId="2"/>
     <tableColumn id="26" xr3:uid="{FA0650E0-02EE-433A-927B-8DCFAD627C43}" name="ANO"/>
     <tableColumn id="27" xr3:uid="{94C00EC6-AB2D-4D90-B787-2C1FF57B5832}" name="MÊS" dataDxfId="1"/>
     <tableColumn id="28" xr3:uid="{57AFB38B-E07E-457A-9571-EB539326E109}" name="SAFRA" dataDxfId="0"/>
@@ -7629,7 +7627,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B2" sqref="B2:AJ25"/>
+      <selection pane="topRight" activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10677,8 +10675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BCD6B43-6B79-4F6C-BEBB-EEE94FDB59C5}">
   <dimension ref="A1:AM36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Y36"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Y3" sqref="Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13833,8 +13831,8 @@
   <dimension ref="A1:AM25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B2" sqref="B2:AJ25"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16712,143 +16710,108 @@
         <v>56</v>
       </c>
       <c r="B25" s="1">
-        <f>SUM(B2,B5:B6,B9,B13:B24)</f>
         <v>15267.900000000001</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" ref="C25:AJ25" si="0">SUM(C2,C5:C6,C9,C13:C24)</f>
         <v>544.29999999999995</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="0"/>
         <v>3305.4</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="0"/>
         <v>192.00000000000003</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" si="0"/>
         <v>36.599999999999994</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" si="0"/>
         <v>20.8</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="0"/>
         <v>4346.3999999999996</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" si="0"/>
         <v>6822.4000000000005</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="0"/>
         <v>28545.7</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="0"/>
         <v>7191.1</v>
       </c>
       <c r="L25" s="1">
-        <f t="shared" si="0"/>
         <v>6290.9</v>
       </c>
       <c r="M25" s="1">
-        <f t="shared" si="0"/>
         <v>676.59999999999991</v>
       </c>
       <c r="N25" s="1">
-        <f t="shared" si="0"/>
         <v>53.8</v>
       </c>
       <c r="O25" s="1">
-        <f t="shared" si="0"/>
         <v>113.2</v>
       </c>
       <c r="P25" s="1">
-        <f t="shared" si="0"/>
         <v>257.7</v>
       </c>
       <c r="Q25" s="1">
-        <f t="shared" si="0"/>
         <v>116.9</v>
       </c>
       <c r="R25" s="1">
-        <f t="shared" si="0"/>
         <v>998.7</v>
       </c>
       <c r="S25" s="1">
-        <f t="shared" si="0"/>
         <v>12846.8</v>
       </c>
       <c r="T25" s="1">
-        <f t="shared" si="0"/>
         <v>150383.19999999995</v>
       </c>
       <c r="U25" s="1">
-        <f t="shared" si="0"/>
         <v>92045.599999999991</v>
       </c>
       <c r="V25" s="1">
-        <f t="shared" si="0"/>
         <v>25195.799999999996</v>
       </c>
       <c r="W25" s="1">
-        <f t="shared" si="0"/>
         <v>32232.100000000002</v>
       </c>
       <c r="X25" s="1">
-        <f t="shared" si="0"/>
         <v>909.69999999999993</v>
       </c>
       <c r="Y25" s="1">
-        <f t="shared" si="0"/>
         <v>28481.500000000004</v>
       </c>
       <c r="Z25" s="1">
-        <f t="shared" si="0"/>
         <v>18374.800000000003</v>
       </c>
       <c r="AA25" s="1">
-        <f t="shared" si="0"/>
         <v>50.300000000000004</v>
       </c>
       <c r="AB25" s="1">
-        <f t="shared" si="0"/>
         <v>9.1</v>
       </c>
       <c r="AC25" s="1">
-        <f t="shared" si="0"/>
         <v>10047.299999999999</v>
       </c>
       <c r="AD25" s="1">
-        <f t="shared" si="0"/>
         <v>93337.099999999991</v>
       </c>
       <c r="AE25" s="1">
-        <f t="shared" si="0"/>
         <v>45277.599999999991</v>
       </c>
       <c r="AF25" s="1">
-        <f t="shared" si="0"/>
         <v>6979.2</v>
       </c>
       <c r="AG25" s="1">
-        <f t="shared" si="0"/>
         <v>41080.299999999981</v>
       </c>
       <c r="AH25" s="1">
-        <f t="shared" si="0"/>
         <v>43813.600000000006</v>
       </c>
       <c r="AI25" s="1">
-        <f t="shared" si="0"/>
         <v>272201.8</v>
       </c>
       <c r="AJ25" s="1">
-        <f t="shared" si="0"/>
         <v>316015.39999999997</v>
       </c>
       <c r="AK25" s="2">
@@ -16874,8 +16837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37856A1E-82E7-45AE-A2B0-C510B7D63887}">
   <dimension ref="A1:AM36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17070,7 +17033,6 @@
         <v>0</v>
       </c>
       <c r="Y2" s="1">
-        <f t="shared" ref="Y2:Y36" si="0">SUM(B2,E2:F2,I2,M2:X2)</f>
         <v>15267.900000000001</v>
       </c>
       <c r="Z2">
@@ -17157,7 +17119,6 @@
         <v>0</v>
       </c>
       <c r="Y3" s="1">
-        <f t="shared" si="0"/>
         <v>544.29999999999995</v>
       </c>
       <c r="Z3">
@@ -17244,7 +17205,6 @@
         <v>0</v>
       </c>
       <c r="Y4" s="1">
-        <f t="shared" si="0"/>
         <v>3305.4</v>
       </c>
       <c r="Z4">
@@ -17331,7 +17291,6 @@
         <v>0</v>
       </c>
       <c r="Y5" s="1">
-        <f t="shared" si="0"/>
         <v>192.00000000000003</v>
       </c>
       <c r="Z5">
@@ -17418,7 +17377,6 @@
         <v>0</v>
       </c>
       <c r="Y6" s="1">
-        <f t="shared" si="0"/>
         <v>36.599999999999994</v>
       </c>
       <c r="Z6">
@@ -17505,7 +17463,6 @@
         <v>0</v>
       </c>
       <c r="Y7" s="1">
-        <f t="shared" si="0"/>
         <v>20.8</v>
       </c>
       <c r="Z7">
@@ -17592,7 +17549,6 @@
         <v>0</v>
       </c>
       <c r="Y8" s="1">
-        <f t="shared" si="0"/>
         <v>4346.3999999999996</v>
       </c>
       <c r="Z8">
@@ -17679,7 +17635,6 @@
         <v>0</v>
       </c>
       <c r="Y9" s="1">
-        <f t="shared" si="0"/>
         <v>6822.4000000000005</v>
       </c>
       <c r="Z9">
@@ -17766,7 +17721,6 @@
         <v>0</v>
       </c>
       <c r="Y10" s="1">
-        <f t="shared" si="0"/>
         <v>28545.7</v>
       </c>
       <c r="Z10">
@@ -17853,7 +17807,6 @@
         <v>0</v>
       </c>
       <c r="Y11" s="1">
-        <f t="shared" si="0"/>
         <v>7191.1</v>
       </c>
       <c r="Z11">
@@ -17940,7 +17893,6 @@
         <v>0</v>
       </c>
       <c r="Y12" s="1">
-        <f t="shared" si="0"/>
         <v>6290.9</v>
       </c>
       <c r="Z12">
@@ -18027,7 +17979,6 @@
         <v>0</v>
       </c>
       <c r="Y13" s="1">
-        <f t="shared" si="0"/>
         <v>676.59999999999991</v>
       </c>
       <c r="Z13">
@@ -18114,7 +18065,6 @@
         <v>0</v>
       </c>
       <c r="Y14" s="1">
-        <f t="shared" si="0"/>
         <v>53.8</v>
       </c>
       <c r="Z14">
@@ -18201,7 +18151,6 @@
         <v>0</v>
       </c>
       <c r="Y15" s="1">
-        <f t="shared" si="0"/>
         <v>113.2</v>
       </c>
       <c r="Z15">
@@ -18288,7 +18237,6 @@
         <v>0</v>
       </c>
       <c r="Y16" s="1">
-        <f t="shared" si="0"/>
         <v>257.7</v>
       </c>
       <c r="Z16">
@@ -18375,7 +18323,6 @@
         <v>0</v>
       </c>
       <c r="Y17" s="1">
-        <f t="shared" si="0"/>
         <v>116.9</v>
       </c>
       <c r="Z17">
@@ -18462,7 +18409,6 @@
         <v>0</v>
       </c>
       <c r="Y18" s="1">
-        <f t="shared" si="0"/>
         <v>998.7</v>
       </c>
       <c r="Z18">
@@ -18549,7 +18495,6 @@
         <v>0</v>
       </c>
       <c r="Y19" s="1">
-        <f t="shared" si="0"/>
         <v>12846.8</v>
       </c>
       <c r="Z19">
@@ -18636,7 +18581,6 @@
         <v>0</v>
       </c>
       <c r="Y20" s="1">
-        <f t="shared" si="0"/>
         <v>150383.19999999995</v>
       </c>
       <c r="Z20">
@@ -18723,7 +18667,6 @@
         <v>0</v>
       </c>
       <c r="Y21" s="1">
-        <f t="shared" si="0"/>
         <v>92045.599999999991</v>
       </c>
       <c r="Z21">
@@ -18810,7 +18753,6 @@
         <v>0</v>
       </c>
       <c r="Y22" s="1">
-        <f t="shared" si="0"/>
         <v>25195.799999999996</v>
       </c>
       <c r="Z22">
@@ -18897,7 +18839,6 @@
         <v>0</v>
       </c>
       <c r="Y23" s="1">
-        <f t="shared" si="0"/>
         <v>32232.100000000002</v>
       </c>
       <c r="Z23">
@@ -18984,7 +18925,6 @@
         <v>0</v>
       </c>
       <c r="Y24" s="1">
-        <f t="shared" si="0"/>
         <v>909.69999999999993</v>
       </c>
       <c r="Z24">
@@ -19071,7 +19011,6 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="Y25" s="1">
-        <f t="shared" si="0"/>
         <v>28481.500000000004</v>
       </c>
       <c r="Z25">
@@ -19158,7 +19097,6 @@
         <v>0</v>
       </c>
       <c r="Y26" s="1">
-        <f t="shared" si="0"/>
         <v>18374.800000000003</v>
       </c>
       <c r="Z26">
@@ -19256,7 +19194,6 @@
         <v>0</v>
       </c>
       <c r="Y27" s="1">
-        <f t="shared" si="0"/>
         <v>50.300000000000004</v>
       </c>
       <c r="Z27">
@@ -19343,7 +19280,6 @@
         <v>0</v>
       </c>
       <c r="Y28" s="1">
-        <f t="shared" si="0"/>
         <v>9.1</v>
       </c>
       <c r="Z28">
@@ -19430,7 +19366,6 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="Y29" s="1">
-        <f t="shared" si="0"/>
         <v>10047.299999999999</v>
       </c>
       <c r="Z29">
@@ -19517,7 +19452,6 @@
         <v>52.900000000000006</v>
       </c>
       <c r="Y30" s="1">
-        <f t="shared" si="0"/>
         <v>93337.099999999991</v>
       </c>
       <c r="Z30">
@@ -19604,7 +19538,6 @@
         <v>34.200000000000003</v>
       </c>
       <c r="Y31" s="1">
-        <f t="shared" si="0"/>
         <v>45277.599999999991</v>
       </c>
       <c r="Z31">
@@ -19691,7 +19624,6 @@
         <v>0</v>
       </c>
       <c r="Y32" s="1">
-        <f t="shared" si="0"/>
         <v>6979.2</v>
       </c>
       <c r="Z32">
@@ -19778,7 +19710,6 @@
         <v>18.7</v>
       </c>
       <c r="Y33" s="1">
-        <f t="shared" si="0"/>
         <v>41080.299999999981</v>
       </c>
       <c r="Z33">
@@ -19865,7 +19796,6 @@
         <v>0</v>
       </c>
       <c r="Y34" s="1">
-        <f t="shared" si="0"/>
         <v>43813.600000000006</v>
       </c>
       <c r="Z34">
@@ -19952,7 +19882,6 @@
         <v>57.800000000000004</v>
       </c>
       <c r="Y35" s="1">
-        <f t="shared" si="0"/>
         <v>272201.8</v>
       </c>
       <c r="Z35">
@@ -20039,7 +19968,6 @@
         <v>57.800000000000004</v>
       </c>
       <c r="Y36" s="1">
-        <f t="shared" si="0"/>
         <v>316015.39999999997</v>
       </c>
       <c r="Z36">

--- a/Base de Dados/Dados Tratados/NOVEMBRO_2022.xlsx
+++ b/Base de Dados/Dados Tratados/NOVEMBRO_2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projetos\GitHub\Projeto-Painel-de-BI-Dados-Agricolas\Base de Dados\Dados Tratados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94FF7EC-6B73-419A-9C4C-C5D778703D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D77527B-4520-4F71-A6D9-A96CF84855F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AREA_POR_PRODUTO" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="70">
   <si>
     <t>PRODUTO</t>
   </si>
@@ -240,6 +240,18 @@
   <si>
     <t>NOVEMBRO</t>
   </si>
+  <si>
+    <t>TIPO</t>
+  </si>
+  <si>
+    <t>PRODUÇÃO</t>
+  </si>
+  <si>
+    <t>PRODUTIVIDADE</t>
+  </si>
+  <si>
+    <t>ÁREA</t>
+  </si>
 </sst>
 </file>
 
@@ -288,7 +300,19 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="193">
+  <dxfs count="197">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -882,257 +906,263 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5B7D321A-43AE-4A82-BD55-3D36C41B7E32}" name="AREA_POR_PRODUTO" displayName="AREA_POR_PRODUTO" ref="A1:AM25" totalsRowShown="0">
-  <autoFilter ref="A1:AM25" xr:uid="{5B7D321A-43AE-4A82-BD55-3D36C41B7E32}"/>
-  <tableColumns count="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5B7D321A-43AE-4A82-BD55-3D36C41B7E32}" name="AREA_POR_PRODUTO" displayName="AREA_POR_PRODUTO" ref="A1:AN25" totalsRowShown="0">
+  <autoFilter ref="A1:AN25" xr:uid="{5B7D321A-43AE-4A82-BD55-3D36C41B7E32}"/>
+  <tableColumns count="40">
     <tableColumn id="1" xr3:uid="{5E4BCC7B-BD3D-4850-9D02-5BDA26FED269}" name="PRODUTO"/>
-    <tableColumn id="2" xr3:uid="{CA31088B-0A58-4A64-AE47-76C708B3947A}" name="NORTE" dataDxfId="192"/>
-    <tableColumn id="3" xr3:uid="{49129A23-8E4D-43BD-A688-921DB22B8F95}" name="RR" dataDxfId="191"/>
-    <tableColumn id="4" xr3:uid="{A165E71E-265F-4003-AA0E-8E9F26D12909}" name="RO" dataDxfId="190"/>
-    <tableColumn id="5" xr3:uid="{A386A7C6-C111-4CC7-8C16-FD58B8F0562F}" name="AC" dataDxfId="189"/>
-    <tableColumn id="6" xr3:uid="{9B733D29-A480-4FD0-A166-98AAD1AC2E74}" name="AM" dataDxfId="188"/>
-    <tableColumn id="7" xr3:uid="{F2B3378A-D467-452B-B894-8576A5D41BBE}" name="AP" dataDxfId="187"/>
-    <tableColumn id="8" xr3:uid="{2FE38FD4-49A7-402E-9249-2F1FE7E4E027}" name="PA" dataDxfId="186"/>
-    <tableColumn id="9" xr3:uid="{3F8DA4DF-43C6-4A2E-9793-6FB45F31D88A}" name="TO" dataDxfId="185"/>
-    <tableColumn id="10" xr3:uid="{08FE1121-488E-4A8A-A1D0-3D0D87153D95}" name="NORDESTE" dataDxfId="184"/>
-    <tableColumn id="11" xr3:uid="{DD9EA0BE-AEB8-4904-BE5A-81EC4F42E4C6}" name="MA" dataDxfId="183"/>
-    <tableColumn id="12" xr3:uid="{C65CE50B-DF9F-4EFE-AC1E-19A16468713A}" name="PI" dataDxfId="182"/>
-    <tableColumn id="13" xr3:uid="{5D05969A-E1C7-43A7-B71B-22268FB3E232}" name="CE" dataDxfId="181"/>
-    <tableColumn id="14" xr3:uid="{A97B6897-CFFE-4661-B611-B2D60CCF0ADC}" name="RN" dataDxfId="180"/>
-    <tableColumn id="15" xr3:uid="{BF86C9D2-5807-4F40-9051-7A67068281AA}" name="PB" dataDxfId="179"/>
-    <tableColumn id="16" xr3:uid="{E3A30C52-12FA-4308-ACA5-E511229E5D56}" name="PE" dataDxfId="178"/>
-    <tableColumn id="17" xr3:uid="{986578B0-2D30-422D-AE94-C704D371A9ED}" name="AL" dataDxfId="177"/>
-    <tableColumn id="18" xr3:uid="{61435B55-D3FE-4C3A-812E-CE5D0118E63E}" name="SE" dataDxfId="176"/>
-    <tableColumn id="19" xr3:uid="{534969DF-1823-4F20-A806-97162E402F0E}" name="BA" dataDxfId="175"/>
-    <tableColumn id="20" xr3:uid="{EDE8B247-4C19-4366-8800-9FEBEE13F9EA}" name="CENTRO-OESTE" dataDxfId="174"/>
-    <tableColumn id="21" xr3:uid="{A1667BB6-B217-492E-ACA4-B6E7FA0AF37B}" name="MT" dataDxfId="173"/>
-    <tableColumn id="22" xr3:uid="{54601504-468E-416E-8E4D-408050EFD8F1}" name="MS" dataDxfId="172"/>
-    <tableColumn id="23" xr3:uid="{1CA71861-8B72-40F9-8803-77B24A439D3B}" name="GO" dataDxfId="171"/>
-    <tableColumn id="24" xr3:uid="{D65A4ED9-4AA6-46B6-85F9-FF04865D9CD9}" name="DF" dataDxfId="170"/>
-    <tableColumn id="25" xr3:uid="{84502B60-EABA-40A0-98B8-19B8961F1D37}" name="SUDESTE" dataDxfId="169"/>
-    <tableColumn id="26" xr3:uid="{B60F76A8-80E5-4C5C-9541-1F844E7A3AE1}" name="MG" dataDxfId="168"/>
-    <tableColumn id="27" xr3:uid="{CC4AA6A5-83E1-4E87-A2CC-245EF4F57BFB}" name="ES" dataDxfId="167"/>
-    <tableColumn id="28" xr3:uid="{CA5AB65D-6CEA-4F12-93CA-75E3666C2354}" name="RJ" dataDxfId="166"/>
-    <tableColumn id="29" xr3:uid="{1E391A6D-FDCF-41F4-8790-26376C8AD795}" name="SP" dataDxfId="165"/>
-    <tableColumn id="30" xr3:uid="{04C869B7-96FC-43E9-9CE2-82769EFFDCA0}" name="SUL" dataDxfId="164"/>
-    <tableColumn id="31" xr3:uid="{9DCC0D0C-ACE3-4E6C-966D-A3E9ED01FBB5}" name="PR" dataDxfId="163"/>
-    <tableColumn id="32" xr3:uid="{C1056F8D-2C9F-4314-8424-F2B642B3F545}" name="SC" dataDxfId="162"/>
-    <tableColumn id="33" xr3:uid="{417BD3DD-D799-4503-A0AE-70D3CF2E75F7}" name="RS" dataDxfId="161"/>
-    <tableColumn id="34" xr3:uid="{E9B9638C-63FC-4E3C-9765-611D2BA02CEF}" name="NORTE-NORDESTE" dataDxfId="160"/>
-    <tableColumn id="35" xr3:uid="{BB0E374F-8FC9-4AE4-A4A2-6F762AEF1580}" name="CENTRO-SUL" dataDxfId="159"/>
-    <tableColumn id="36" xr3:uid="{8C7BDB00-4B75-4FF9-8F29-D37982132B90}" name="BRASIL" dataDxfId="158"/>
-    <tableColumn id="37" xr3:uid="{0FF9F8EF-1643-4E16-A1B9-53905A2DD396}" name="ANO" dataDxfId="157"/>
-    <tableColumn id="38" xr3:uid="{A4BC462C-3977-4A40-BE0D-1A25B4C47A2A}" name="MÊS" dataDxfId="156"/>
-    <tableColumn id="39" xr3:uid="{8717C3B1-3F56-4A6D-8272-548CC6EE93AA}" name="SAFRA" dataDxfId="155"/>
+    <tableColumn id="2" xr3:uid="{CA31088B-0A58-4A64-AE47-76C708B3947A}" name="NORTE" dataDxfId="196"/>
+    <tableColumn id="3" xr3:uid="{49129A23-8E4D-43BD-A688-921DB22B8F95}" name="RR" dataDxfId="195"/>
+    <tableColumn id="4" xr3:uid="{A165E71E-265F-4003-AA0E-8E9F26D12909}" name="RO" dataDxfId="194"/>
+    <tableColumn id="5" xr3:uid="{A386A7C6-C111-4CC7-8C16-FD58B8F0562F}" name="AC" dataDxfId="193"/>
+    <tableColumn id="6" xr3:uid="{9B733D29-A480-4FD0-A166-98AAD1AC2E74}" name="AM" dataDxfId="192"/>
+    <tableColumn id="7" xr3:uid="{F2B3378A-D467-452B-B894-8576A5D41BBE}" name="AP" dataDxfId="191"/>
+    <tableColumn id="8" xr3:uid="{2FE38FD4-49A7-402E-9249-2F1FE7E4E027}" name="PA" dataDxfId="190"/>
+    <tableColumn id="9" xr3:uid="{3F8DA4DF-43C6-4A2E-9793-6FB45F31D88A}" name="TO" dataDxfId="189"/>
+    <tableColumn id="10" xr3:uid="{08FE1121-488E-4A8A-A1D0-3D0D87153D95}" name="NORDESTE" dataDxfId="188"/>
+    <tableColumn id="11" xr3:uid="{DD9EA0BE-AEB8-4904-BE5A-81EC4F42E4C6}" name="MA" dataDxfId="187"/>
+    <tableColumn id="12" xr3:uid="{C65CE50B-DF9F-4EFE-AC1E-19A16468713A}" name="PI" dataDxfId="186"/>
+    <tableColumn id="13" xr3:uid="{5D05969A-E1C7-43A7-B71B-22268FB3E232}" name="CE" dataDxfId="185"/>
+    <tableColumn id="14" xr3:uid="{A97B6897-CFFE-4661-B611-B2D60CCF0ADC}" name="RN" dataDxfId="184"/>
+    <tableColumn id="15" xr3:uid="{BF86C9D2-5807-4F40-9051-7A67068281AA}" name="PB" dataDxfId="183"/>
+    <tableColumn id="16" xr3:uid="{E3A30C52-12FA-4308-ACA5-E511229E5D56}" name="PE" dataDxfId="182"/>
+    <tableColumn id="17" xr3:uid="{986578B0-2D30-422D-AE94-C704D371A9ED}" name="AL" dataDxfId="181"/>
+    <tableColumn id="18" xr3:uid="{61435B55-D3FE-4C3A-812E-CE5D0118E63E}" name="SE" dataDxfId="180"/>
+    <tableColumn id="19" xr3:uid="{534969DF-1823-4F20-A806-97162E402F0E}" name="BA" dataDxfId="179"/>
+    <tableColumn id="20" xr3:uid="{EDE8B247-4C19-4366-8800-9FEBEE13F9EA}" name="CENTRO-OESTE" dataDxfId="178"/>
+    <tableColumn id="21" xr3:uid="{A1667BB6-B217-492E-ACA4-B6E7FA0AF37B}" name="MT" dataDxfId="177"/>
+    <tableColumn id="22" xr3:uid="{54601504-468E-416E-8E4D-408050EFD8F1}" name="MS" dataDxfId="176"/>
+    <tableColumn id="23" xr3:uid="{1CA71861-8B72-40F9-8803-77B24A439D3B}" name="GO" dataDxfId="175"/>
+    <tableColumn id="24" xr3:uid="{D65A4ED9-4AA6-46B6-85F9-FF04865D9CD9}" name="DF" dataDxfId="174"/>
+    <tableColumn id="25" xr3:uid="{84502B60-EABA-40A0-98B8-19B8961F1D37}" name="SUDESTE" dataDxfId="173"/>
+    <tableColumn id="26" xr3:uid="{B60F76A8-80E5-4C5C-9541-1F844E7A3AE1}" name="MG" dataDxfId="172"/>
+    <tableColumn id="27" xr3:uid="{CC4AA6A5-83E1-4E87-A2CC-245EF4F57BFB}" name="ES" dataDxfId="171"/>
+    <tableColumn id="28" xr3:uid="{CA5AB65D-6CEA-4F12-93CA-75E3666C2354}" name="RJ" dataDxfId="170"/>
+    <tableColumn id="29" xr3:uid="{1E391A6D-FDCF-41F4-8790-26376C8AD795}" name="SP" dataDxfId="169"/>
+    <tableColumn id="30" xr3:uid="{04C869B7-96FC-43E9-9CE2-82769EFFDCA0}" name="SUL" dataDxfId="168"/>
+    <tableColumn id="31" xr3:uid="{9DCC0D0C-ACE3-4E6C-966D-A3E9ED01FBB5}" name="PR" dataDxfId="167"/>
+    <tableColumn id="32" xr3:uid="{C1056F8D-2C9F-4314-8424-F2B642B3F545}" name="SC" dataDxfId="166"/>
+    <tableColumn id="33" xr3:uid="{417BD3DD-D799-4503-A0AE-70D3CF2E75F7}" name="RS" dataDxfId="165"/>
+    <tableColumn id="34" xr3:uid="{E9B9638C-63FC-4E3C-9765-611D2BA02CEF}" name="NORTE-NORDESTE" dataDxfId="164"/>
+    <tableColumn id="35" xr3:uid="{BB0E374F-8FC9-4AE4-A4A2-6F762AEF1580}" name="CENTRO-SUL" dataDxfId="163"/>
+    <tableColumn id="36" xr3:uid="{8C7BDB00-4B75-4FF9-8F29-D37982132B90}" name="BRASIL" dataDxfId="162"/>
+    <tableColumn id="37" xr3:uid="{0FF9F8EF-1643-4E16-A1B9-53905A2DD396}" name="ANO" dataDxfId="161"/>
+    <tableColumn id="38" xr3:uid="{A4BC462C-3977-4A40-BE0D-1A25B4C47A2A}" name="MÊS" dataDxfId="160"/>
+    <tableColumn id="39" xr3:uid="{8717C3B1-3F56-4A6D-8272-548CC6EE93AA}" name="SAFRA" dataDxfId="159"/>
+    <tableColumn id="40" xr3:uid="{4D5856B2-F2D4-4C29-95FE-37C10A1CA3AC}" name="TIPO" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6AAA68D2-2837-4E56-9205-588FBC25E607}" name="AREA_POR_REGIAO" displayName="AREA_POR_REGIAO" ref="A1:AB36" totalsRowShown="0">
-  <autoFilter ref="A1:AB36" xr:uid="{6AAA68D2-2837-4E56-9205-588FBC25E607}"/>
-  <tableColumns count="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6AAA68D2-2837-4E56-9205-588FBC25E607}" name="AREA_POR_REGIAO" displayName="AREA_POR_REGIAO" ref="A1:AC36" totalsRowShown="0">
+  <autoFilter ref="A1:AC36" xr:uid="{6AAA68D2-2837-4E56-9205-588FBC25E607}"/>
+  <tableColumns count="29">
     <tableColumn id="1" xr3:uid="{9D8E11EB-62E4-4646-82D1-16F281AB841F}" name="REGIÃO"/>
-    <tableColumn id="2" xr3:uid="{400D5D9F-14BE-449D-A25E-F770F1684551}" name="ALGODÃO TOTAL" dataDxfId="154"/>
-    <tableColumn id="3" xr3:uid="{1A597964-8010-4331-ABEA-1AEA845AB5F5}" name="ALGODÃO PLUMA" dataDxfId="153"/>
-    <tableColumn id="4" xr3:uid="{B2BFD712-F833-47B4-830F-961CC061703C}" name="ALGODÃO CAROÇO" dataDxfId="152"/>
-    <tableColumn id="5" xr3:uid="{F4D73FDB-EAAE-4D0E-8E22-29A41F3B9E20}" name="AMENDOIM" dataDxfId="151"/>
-    <tableColumn id="6" xr3:uid="{5B9AB598-74CF-401E-9133-20988114821A}" name="ARROZ TOTAL" dataDxfId="150"/>
-    <tableColumn id="7" xr3:uid="{9F25F6FD-273B-47C9-A893-C8D4CAFE7AB6}" name="ARROZ SEQUEIRO" dataDxfId="149"/>
-    <tableColumn id="8" xr3:uid="{C5FEDFF2-6DFD-4C53-869F-F28A5C23DF3B}" name="ARROZ IRRIGADO" dataDxfId="148"/>
-    <tableColumn id="9" xr3:uid="{211D5550-928C-4A68-8D86-E36DF84B0861}" name="FEIJÃO TOTAL" dataDxfId="147"/>
-    <tableColumn id="10" xr3:uid="{9C00CC61-0B0F-43D5-A684-AE913448FB8D}" name="FEIJÃO CORES" dataDxfId="146"/>
-    <tableColumn id="11" xr3:uid="{F00934D7-9B86-45AA-8159-2128826AE03E}" name="FEIJÃO PRETO" dataDxfId="145"/>
-    <tableColumn id="12" xr3:uid="{1CBBEDAF-020E-4EFE-907A-27557665AA02}" name="FEIJÃO CAUPI" dataDxfId="144"/>
-    <tableColumn id="13" xr3:uid="{A8B4A0BB-9E8E-4F8C-9B7B-89F6D688EC32}" name="GERGELIM" dataDxfId="143"/>
-    <tableColumn id="14" xr3:uid="{BD44DF76-DF43-47F8-8A9E-050E54211B27}" name="GIRASSOL" dataDxfId="142"/>
-    <tableColumn id="15" xr3:uid="{E3E75921-B2B5-4327-9628-9461D4B2C97A}" name="MAMONA" dataDxfId="141"/>
-    <tableColumn id="16" xr3:uid="{779BE33D-35AA-4039-A599-BA68B482A978}" name="MILHO" dataDxfId="140"/>
-    <tableColumn id="17" xr3:uid="{AC0C1990-76E8-414D-951C-E60C4646E855}" name="SOJA" dataDxfId="139"/>
-    <tableColumn id="18" xr3:uid="{CC2AD535-2144-4A37-B30C-44803E8E0DC2}" name="SORGO" dataDxfId="138"/>
-    <tableColumn id="19" xr3:uid="{DB09C5E0-C39A-4FE3-A0C4-5F83F16E55BE}" name="AVEIA" dataDxfId="137"/>
-    <tableColumn id="20" xr3:uid="{A5A1A29D-945B-43C5-872F-5D7E2D8C0F4F}" name="CANOLA" dataDxfId="136"/>
-    <tableColumn id="21" xr3:uid="{07F643AF-5A03-40BB-B5E8-C02BD7E21808}" name="CENTEIO" dataDxfId="135"/>
-    <tableColumn id="22" xr3:uid="{6A47C86C-50FC-4E1C-8369-917038B220D3}" name="CEVADA" dataDxfId="134"/>
-    <tableColumn id="23" xr3:uid="{2D22156A-463D-4284-9CD8-69F0E87747E7}" name="TRIGO" dataDxfId="133"/>
-    <tableColumn id="24" xr3:uid="{5ACD3FF0-294A-44A8-8DF0-F447B6863725}" name="TRITICALE" dataDxfId="132"/>
-    <tableColumn id="25" xr3:uid="{E71C1FB1-73E6-456B-8624-C3377581DF94}" name="GERAL" dataDxfId="131">
+    <tableColumn id="2" xr3:uid="{400D5D9F-14BE-449D-A25E-F770F1684551}" name="ALGODÃO TOTAL" dataDxfId="158"/>
+    <tableColumn id="3" xr3:uid="{1A597964-8010-4331-ABEA-1AEA845AB5F5}" name="ALGODÃO PLUMA" dataDxfId="157"/>
+    <tableColumn id="4" xr3:uid="{B2BFD712-F833-47B4-830F-961CC061703C}" name="ALGODÃO CAROÇO" dataDxfId="156"/>
+    <tableColumn id="5" xr3:uid="{F4D73FDB-EAAE-4D0E-8E22-29A41F3B9E20}" name="AMENDOIM" dataDxfId="155"/>
+    <tableColumn id="6" xr3:uid="{5B9AB598-74CF-401E-9133-20988114821A}" name="ARROZ TOTAL" dataDxfId="154"/>
+    <tableColumn id="7" xr3:uid="{9F25F6FD-273B-47C9-A893-C8D4CAFE7AB6}" name="ARROZ SEQUEIRO" dataDxfId="153"/>
+    <tableColumn id="8" xr3:uid="{C5FEDFF2-6DFD-4C53-869F-F28A5C23DF3B}" name="ARROZ IRRIGADO" dataDxfId="152"/>
+    <tableColumn id="9" xr3:uid="{211D5550-928C-4A68-8D86-E36DF84B0861}" name="FEIJÃO TOTAL" dataDxfId="151"/>
+    <tableColumn id="10" xr3:uid="{9C00CC61-0B0F-43D5-A684-AE913448FB8D}" name="FEIJÃO CORES" dataDxfId="150"/>
+    <tableColumn id="11" xr3:uid="{F00934D7-9B86-45AA-8159-2128826AE03E}" name="FEIJÃO PRETO" dataDxfId="149"/>
+    <tableColumn id="12" xr3:uid="{1CBBEDAF-020E-4EFE-907A-27557665AA02}" name="FEIJÃO CAUPI" dataDxfId="148"/>
+    <tableColumn id="13" xr3:uid="{A8B4A0BB-9E8E-4F8C-9B7B-89F6D688EC32}" name="GERGELIM" dataDxfId="147"/>
+    <tableColumn id="14" xr3:uid="{BD44DF76-DF43-47F8-8A9E-050E54211B27}" name="GIRASSOL" dataDxfId="146"/>
+    <tableColumn id="15" xr3:uid="{E3E75921-B2B5-4327-9628-9461D4B2C97A}" name="MAMONA" dataDxfId="145"/>
+    <tableColumn id="16" xr3:uid="{779BE33D-35AA-4039-A599-BA68B482A978}" name="MILHO" dataDxfId="144"/>
+    <tableColumn id="17" xr3:uid="{AC0C1990-76E8-414D-951C-E60C4646E855}" name="SOJA" dataDxfId="143"/>
+    <tableColumn id="18" xr3:uid="{CC2AD535-2144-4A37-B30C-44803E8E0DC2}" name="SORGO" dataDxfId="142"/>
+    <tableColumn id="19" xr3:uid="{DB09C5E0-C39A-4FE3-A0C4-5F83F16E55BE}" name="AVEIA" dataDxfId="141"/>
+    <tableColumn id="20" xr3:uid="{A5A1A29D-945B-43C5-872F-5D7E2D8C0F4F}" name="CANOLA" dataDxfId="140"/>
+    <tableColumn id="21" xr3:uid="{07F643AF-5A03-40BB-B5E8-C02BD7E21808}" name="CENTEIO" dataDxfId="139"/>
+    <tableColumn id="22" xr3:uid="{6A47C86C-50FC-4E1C-8369-917038B220D3}" name="CEVADA" dataDxfId="138"/>
+    <tableColumn id="23" xr3:uid="{2D22156A-463D-4284-9CD8-69F0E87747E7}" name="TRIGO" dataDxfId="137"/>
+    <tableColumn id="24" xr3:uid="{5ACD3FF0-294A-44A8-8DF0-F447B6863725}" name="TRITICALE" dataDxfId="136"/>
+    <tableColumn id="25" xr3:uid="{E71C1FB1-73E6-456B-8624-C3377581DF94}" name="GERAL" dataDxfId="135">
       <calculatedColumnFormula>SUM(B2,E2:F2,I2,M2:X2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{8186BB93-C0FE-4341-A195-EA43AAD936F3}" name="ANO" dataDxfId="130"/>
-    <tableColumn id="27" xr3:uid="{87DB167D-5607-4997-951C-88947D3A6327}" name="MÊS" dataDxfId="129"/>
-    <tableColumn id="28" xr3:uid="{C07FA4E5-704A-4BBC-9B48-E235E6FEA795}" name="SAFRA" dataDxfId="128"/>
+    <tableColumn id="26" xr3:uid="{8186BB93-C0FE-4341-A195-EA43AAD936F3}" name="ANO" dataDxfId="134"/>
+    <tableColumn id="27" xr3:uid="{87DB167D-5607-4997-951C-88947D3A6327}" name="MÊS" dataDxfId="133"/>
+    <tableColumn id="28" xr3:uid="{C07FA4E5-704A-4BBC-9B48-E235E6FEA795}" name="SAFRA" dataDxfId="132"/>
+    <tableColumn id="29" xr3:uid="{E65C53A8-7CAC-4575-A15B-E60B5035F377}" name="TIPO" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A6E87F42-FE8A-4067-8EF0-E46E70574C8B}" name="PRODUTIVIDADE_POR_PRODUTO" displayName="PRODUTIVIDADE_POR_PRODUTO" ref="A1:AM25" totalsRowShown="0">
-  <autoFilter ref="A1:AM25" xr:uid="{5B7D321A-43AE-4A82-BD55-3D36C41B7E32}"/>
-  <tableColumns count="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A6E87F42-FE8A-4067-8EF0-E46E70574C8B}" name="PRODUTIVIDADE_POR_PRODUTO" displayName="PRODUTIVIDADE_POR_PRODUTO" ref="A1:AN25" totalsRowShown="0">
+  <autoFilter ref="A1:AN25" xr:uid="{5B7D321A-43AE-4A82-BD55-3D36C41B7E32}"/>
+  <tableColumns count="40">
     <tableColumn id="1" xr3:uid="{8CF1AF50-3446-4E75-8105-3A27A31DC53D}" name="PRODUTO"/>
-    <tableColumn id="2" xr3:uid="{B84906ED-0B3E-4BAF-823C-613564EC7F44}" name="NORTE" dataDxfId="127"/>
-    <tableColumn id="3" xr3:uid="{84B9811A-583F-4CE3-B96E-FD8D3F9C0AF7}" name="RR" dataDxfId="126"/>
-    <tableColumn id="4" xr3:uid="{0AFF1D5D-3E87-4339-BBA1-770DC84997E0}" name="RO" dataDxfId="125"/>
-    <tableColumn id="5" xr3:uid="{8E7E000F-2618-4C1D-A0A3-786BAD1CCA1E}" name="AC" dataDxfId="124"/>
-    <tableColumn id="6" xr3:uid="{8FDC185D-309C-44F0-909D-47D36E4E88C7}" name="AM" dataDxfId="123"/>
-    <tableColumn id="7" xr3:uid="{FCFBA294-1B56-4D43-81BD-8397D063FB54}" name="AP" dataDxfId="122"/>
-    <tableColumn id="8" xr3:uid="{A4D89CF5-1E5F-4A95-9E6F-6AF87D6DC899}" name="PA" dataDxfId="121"/>
-    <tableColumn id="9" xr3:uid="{CBEB4E66-65D5-43C3-A560-E78883927AF4}" name="TO" dataDxfId="120"/>
-    <tableColumn id="10" xr3:uid="{E7D25C84-64C7-44D2-85A6-1289EF929C61}" name="NORDESTE" dataDxfId="119"/>
-    <tableColumn id="11" xr3:uid="{3A9FA498-3724-4EB1-92DC-966AAB9D214D}" name="MA" dataDxfId="118"/>
-    <tableColumn id="12" xr3:uid="{217BE2AA-49BC-4EFB-A2E9-A68DAFEE98F1}" name="PI" dataDxfId="117"/>
-    <tableColumn id="13" xr3:uid="{2A2F8CD6-E44E-48F7-95FF-898DA8413AFD}" name="CE" dataDxfId="116"/>
-    <tableColumn id="14" xr3:uid="{A6E9090C-1AB9-4D6E-9F99-ABDA730D9CA6}" name="RN" dataDxfId="115"/>
-    <tableColumn id="15" xr3:uid="{C74DAA05-C155-4F4D-B631-EB31FBB3665F}" name="PB" dataDxfId="114"/>
-    <tableColumn id="16" xr3:uid="{E5A10D15-FEE8-4661-ADBA-FB28CEA9267C}" name="PE" dataDxfId="113"/>
-    <tableColumn id="17" xr3:uid="{D1DA04F7-F9F0-4017-AE33-C5C1E7CE5AC0}" name="AL" dataDxfId="112"/>
-    <tableColumn id="18" xr3:uid="{DD2B9F5D-C570-466E-82CC-C54D2042ADFD}" name="SE" dataDxfId="111"/>
-    <tableColumn id="19" xr3:uid="{A2536CAA-3E99-4275-8AFB-0F230AD1FE08}" name="BA" dataDxfId="110"/>
-    <tableColumn id="20" xr3:uid="{C9DE622E-9653-49C4-97A9-6F44C0598F06}" name="CENTRO-OESTE" dataDxfId="109"/>
-    <tableColumn id="21" xr3:uid="{625EA772-B512-443B-A734-AF5CE77AB668}" name="MT" dataDxfId="108"/>
-    <tableColumn id="22" xr3:uid="{71A57575-7815-481F-AAAC-8C1EE9703912}" name="MS" dataDxfId="107"/>
-    <tableColumn id="23" xr3:uid="{F0365580-4820-46C6-A7D7-BD7C897237CB}" name="GO" dataDxfId="106"/>
-    <tableColumn id="24" xr3:uid="{A5D6C791-8D94-4B52-8C0C-39F7AD4AC4E1}" name="DF" dataDxfId="105"/>
-    <tableColumn id="25" xr3:uid="{3C464D88-F9B1-4C7A-8784-1840561093C3}" name="SUDESTE" dataDxfId="104"/>
-    <tableColumn id="26" xr3:uid="{1184085B-389F-4DFA-BAAA-79A73F5D58E9}" name="MG" dataDxfId="103"/>
-    <tableColumn id="27" xr3:uid="{1FD7AAC9-8B22-4599-8C41-97B306E682A8}" name="ES" dataDxfId="102"/>
-    <tableColumn id="28" xr3:uid="{3789E530-8644-46B9-A1D9-538F173953B6}" name="RJ" dataDxfId="101"/>
-    <tableColumn id="29" xr3:uid="{4B510379-3A08-42EB-8F76-653D7A9A0F0C}" name="SP" dataDxfId="100"/>
-    <tableColumn id="30" xr3:uid="{B7137113-AFD6-4F75-AE3E-0C0A27D770EB}" name="SUL" dataDxfId="99"/>
-    <tableColumn id="31" xr3:uid="{725B070C-B20E-4909-860C-25B32C284E06}" name="PR" dataDxfId="98"/>
-    <tableColumn id="32" xr3:uid="{4407D65F-AE79-48AC-9A84-33DCE4A2ADA4}" name="SC" dataDxfId="97"/>
-    <tableColumn id="33" xr3:uid="{88C455AC-C842-489F-84B2-E60D576F9F16}" name="RS" dataDxfId="96"/>
-    <tableColumn id="34" xr3:uid="{F04DD72A-4B16-4880-860B-5C4A2F256C93}" name="NORTE-NORDESTE" dataDxfId="95"/>
-    <tableColumn id="35" xr3:uid="{83D2B4A6-D70A-4652-89BB-1ED9B337F34A}" name="CENTRO-SUL" dataDxfId="94"/>
-    <tableColumn id="36" xr3:uid="{E90095A4-CB96-450E-A159-B808E8913751}" name="BRASIL" dataDxfId="93"/>
-    <tableColumn id="37" xr3:uid="{5796B11A-3AF2-4B43-92FF-178971C3DBD9}" name="ANO" dataDxfId="92"/>
-    <tableColumn id="38" xr3:uid="{5B4B4C2C-6AED-479F-B62E-92551DACC89D}" name="MÊS" dataDxfId="91"/>
-    <tableColumn id="39" xr3:uid="{453C9B87-B335-49FF-BF33-6444C74EE93B}" name="SAFRA" dataDxfId="90"/>
+    <tableColumn id="2" xr3:uid="{B84906ED-0B3E-4BAF-823C-613564EC7F44}" name="NORTE" dataDxfId="131"/>
+    <tableColumn id="3" xr3:uid="{84B9811A-583F-4CE3-B96E-FD8D3F9C0AF7}" name="RR" dataDxfId="130"/>
+    <tableColumn id="4" xr3:uid="{0AFF1D5D-3E87-4339-BBA1-770DC84997E0}" name="RO" dataDxfId="129"/>
+    <tableColumn id="5" xr3:uid="{8E7E000F-2618-4C1D-A0A3-786BAD1CCA1E}" name="AC" dataDxfId="128"/>
+    <tableColumn id="6" xr3:uid="{8FDC185D-309C-44F0-909D-47D36E4E88C7}" name="AM" dataDxfId="127"/>
+    <tableColumn id="7" xr3:uid="{FCFBA294-1B56-4D43-81BD-8397D063FB54}" name="AP" dataDxfId="126"/>
+    <tableColumn id="8" xr3:uid="{A4D89CF5-1E5F-4A95-9E6F-6AF87D6DC899}" name="PA" dataDxfId="125"/>
+    <tableColumn id="9" xr3:uid="{CBEB4E66-65D5-43C3-A560-E78883927AF4}" name="TO" dataDxfId="124"/>
+    <tableColumn id="10" xr3:uid="{E7D25C84-64C7-44D2-85A6-1289EF929C61}" name="NORDESTE" dataDxfId="123"/>
+    <tableColumn id="11" xr3:uid="{3A9FA498-3724-4EB1-92DC-966AAB9D214D}" name="MA" dataDxfId="122"/>
+    <tableColumn id="12" xr3:uid="{217BE2AA-49BC-4EFB-A2E9-A68DAFEE98F1}" name="PI" dataDxfId="121"/>
+    <tableColumn id="13" xr3:uid="{2A2F8CD6-E44E-48F7-95FF-898DA8413AFD}" name="CE" dataDxfId="120"/>
+    <tableColumn id="14" xr3:uid="{A6E9090C-1AB9-4D6E-9F99-ABDA730D9CA6}" name="RN" dataDxfId="119"/>
+    <tableColumn id="15" xr3:uid="{C74DAA05-C155-4F4D-B631-EB31FBB3665F}" name="PB" dataDxfId="118"/>
+    <tableColumn id="16" xr3:uid="{E5A10D15-FEE8-4661-ADBA-FB28CEA9267C}" name="PE" dataDxfId="117"/>
+    <tableColumn id="17" xr3:uid="{D1DA04F7-F9F0-4017-AE33-C5C1E7CE5AC0}" name="AL" dataDxfId="116"/>
+    <tableColumn id="18" xr3:uid="{DD2B9F5D-C570-466E-82CC-C54D2042ADFD}" name="SE" dataDxfId="115"/>
+    <tableColumn id="19" xr3:uid="{A2536CAA-3E99-4275-8AFB-0F230AD1FE08}" name="BA" dataDxfId="114"/>
+    <tableColumn id="20" xr3:uid="{C9DE622E-9653-49C4-97A9-6F44C0598F06}" name="CENTRO-OESTE" dataDxfId="113"/>
+    <tableColumn id="21" xr3:uid="{625EA772-B512-443B-A734-AF5CE77AB668}" name="MT" dataDxfId="112"/>
+    <tableColumn id="22" xr3:uid="{71A57575-7815-481F-AAAC-8C1EE9703912}" name="MS" dataDxfId="111"/>
+    <tableColumn id="23" xr3:uid="{F0365580-4820-46C6-A7D7-BD7C897237CB}" name="GO" dataDxfId="110"/>
+    <tableColumn id="24" xr3:uid="{A5D6C791-8D94-4B52-8C0C-39F7AD4AC4E1}" name="DF" dataDxfId="109"/>
+    <tableColumn id="25" xr3:uid="{3C464D88-F9B1-4C7A-8784-1840561093C3}" name="SUDESTE" dataDxfId="108"/>
+    <tableColumn id="26" xr3:uid="{1184085B-389F-4DFA-BAAA-79A73F5D58E9}" name="MG" dataDxfId="107"/>
+    <tableColumn id="27" xr3:uid="{1FD7AAC9-8B22-4599-8C41-97B306E682A8}" name="ES" dataDxfId="106"/>
+    <tableColumn id="28" xr3:uid="{3789E530-8644-46B9-A1D9-538F173953B6}" name="RJ" dataDxfId="105"/>
+    <tableColumn id="29" xr3:uid="{4B510379-3A08-42EB-8F76-653D7A9A0F0C}" name="SP" dataDxfId="104"/>
+    <tableColumn id="30" xr3:uid="{B7137113-AFD6-4F75-AE3E-0C0A27D770EB}" name="SUL" dataDxfId="103"/>
+    <tableColumn id="31" xr3:uid="{725B070C-B20E-4909-860C-25B32C284E06}" name="PR" dataDxfId="102"/>
+    <tableColumn id="32" xr3:uid="{4407D65F-AE79-48AC-9A84-33DCE4A2ADA4}" name="SC" dataDxfId="101"/>
+    <tableColumn id="33" xr3:uid="{88C455AC-C842-489F-84B2-E60D576F9F16}" name="RS" dataDxfId="100"/>
+    <tableColumn id="34" xr3:uid="{F04DD72A-4B16-4880-860B-5C4A2F256C93}" name="NORTE-NORDESTE" dataDxfId="99"/>
+    <tableColumn id="35" xr3:uid="{83D2B4A6-D70A-4652-89BB-1ED9B337F34A}" name="CENTRO-SUL" dataDxfId="98"/>
+    <tableColumn id="36" xr3:uid="{E90095A4-CB96-450E-A159-B808E8913751}" name="BRASIL" dataDxfId="97"/>
+    <tableColumn id="37" xr3:uid="{5796B11A-3AF2-4B43-92FF-178971C3DBD9}" name="ANO" dataDxfId="96"/>
+    <tableColumn id="38" xr3:uid="{5B4B4C2C-6AED-479F-B62E-92551DACC89D}" name="MÊS" dataDxfId="95"/>
+    <tableColumn id="39" xr3:uid="{453C9B87-B335-49FF-BF33-6444C74EE93B}" name="SAFRA" dataDxfId="94"/>
+    <tableColumn id="40" xr3:uid="{1B925C6A-44F9-43F5-8E99-1424D9643E23}" name="TIPO" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{51B9CBF4-A819-4208-A9FE-4497BC6B95BA}" name="PRODUTIVIDADE_POR_REGIAO" displayName="PRODUTIVIDADE_POR_REGIAO" ref="A1:AB36" totalsRowShown="0">
-  <autoFilter ref="A1:AB36" xr:uid="{51B9CBF4-A819-4208-A9FE-4497BC6B95BA}"/>
-  <tableColumns count="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{51B9CBF4-A819-4208-A9FE-4497BC6B95BA}" name="PRODUTIVIDADE_POR_REGIAO" displayName="PRODUTIVIDADE_POR_REGIAO" ref="A1:AC36" totalsRowShown="0">
+  <autoFilter ref="A1:AC36" xr:uid="{51B9CBF4-A819-4208-A9FE-4497BC6B95BA}"/>
+  <tableColumns count="29">
     <tableColumn id="1" xr3:uid="{DAF3B878-FB08-46CD-ACA1-18181EFBFBAD}" name="REGIÃO"/>
-    <tableColumn id="2" xr3:uid="{696769AD-331A-446B-8AC3-B7C2D6DFB4E8}" name="ALGODÃO TOTAL" dataDxfId="89"/>
-    <tableColumn id="3" xr3:uid="{5E665A64-E5CA-4198-9ED1-223E0FFF8B1A}" name="ALGODÃO PLUMA" dataDxfId="88"/>
-    <tableColumn id="4" xr3:uid="{57ADDDDD-9A37-44E9-983C-5B9F0D61AF11}" name="ALGODÃO CAROÇO" dataDxfId="87"/>
-    <tableColumn id="5" xr3:uid="{BD6D0D9E-BA32-4F0C-BAA5-432806AD0AA9}" name="AMENDOIM" dataDxfId="86"/>
-    <tableColumn id="6" xr3:uid="{C681D5C9-AA19-42EE-BA4D-84A974B167AB}" name="ARROZ TOTAL" dataDxfId="85"/>
-    <tableColumn id="7" xr3:uid="{21C89C02-6582-4EA1-885A-BE6F358EFB65}" name="ARROZ SEQUEIRO" dataDxfId="84"/>
-    <tableColumn id="8" xr3:uid="{501ED1B5-AC3F-4814-A140-66E033D4A6D8}" name="ARROZ IRRIGADO" dataDxfId="83"/>
-    <tableColumn id="9" xr3:uid="{04AD2B17-EAE9-468E-9CE2-F9622EDD8FAB}" name="FEIJÃO TOTAL" dataDxfId="82"/>
-    <tableColumn id="10" xr3:uid="{42CBB38A-7B8E-4D57-921D-C225BD11BA37}" name="FEIJÃO CORES" dataDxfId="81"/>
-    <tableColumn id="11" xr3:uid="{2D91C5A5-E4B0-489B-803D-F2729F4C4F74}" name="FEIJÃO PRETO" dataDxfId="80"/>
-    <tableColumn id="12" xr3:uid="{99C1F29D-95F7-4EEA-8358-7E1C3C68D9BD}" name="FEIJÃO CAUPI" dataDxfId="79"/>
-    <tableColumn id="13" xr3:uid="{B56D35BC-0CE8-4B2C-AA42-0F259574BA42}" name="GERGELIM" dataDxfId="78"/>
-    <tableColumn id="14" xr3:uid="{DCA5F91F-E4C7-409B-8D7D-D7CB01BD5BD4}" name="GIRASSOL" dataDxfId="77"/>
-    <tableColumn id="15" xr3:uid="{C4FEE6B7-7EF6-456E-B8DE-D28E6D59FC75}" name="MAMONA" dataDxfId="76"/>
-    <tableColumn id="16" xr3:uid="{1355C0D1-26AC-4CDD-97CF-BBF69AC27943}" name="MILHO" dataDxfId="75"/>
-    <tableColumn id="17" xr3:uid="{F87E309F-FB19-4F9B-AF8A-791408964512}" name="SOJA" dataDxfId="74"/>
-    <tableColumn id="18" xr3:uid="{C3B3364B-EC9C-4949-8747-10B77423825C}" name="SORGO" dataDxfId="73"/>
-    <tableColumn id="19" xr3:uid="{24AFF494-F277-42E7-BB5C-7D4DD4610D0A}" name="AVEIA" dataDxfId="72"/>
-    <tableColumn id="20" xr3:uid="{AA50ABAF-470B-4E78-B762-C184C2002B38}" name="CANOLA" dataDxfId="71"/>
-    <tableColumn id="21" xr3:uid="{E41B718D-8512-4FBA-94E7-68D66488A5A3}" name="CENTEIO" dataDxfId="70"/>
-    <tableColumn id="22" xr3:uid="{5FD3C437-7E82-475D-BB2A-21A8CCFB39A8}" name="CEVADA" dataDxfId="69"/>
-    <tableColumn id="23" xr3:uid="{521DED51-CA6F-48F2-89ED-A38C0B449C5F}" name="TRIGO" dataDxfId="68"/>
-    <tableColumn id="24" xr3:uid="{C71EED0F-A05C-4902-876D-30647F78380D}" name="TRITICALE" dataDxfId="67"/>
-    <tableColumn id="25" xr3:uid="{43F11742-31FE-47CA-9206-DE9A85BDFA19}" name="GERAL" dataDxfId="66"/>
+    <tableColumn id="2" xr3:uid="{696769AD-331A-446B-8AC3-B7C2D6DFB4E8}" name="ALGODÃO TOTAL" dataDxfId="93"/>
+    <tableColumn id="3" xr3:uid="{5E665A64-E5CA-4198-9ED1-223E0FFF8B1A}" name="ALGODÃO PLUMA" dataDxfId="92"/>
+    <tableColumn id="4" xr3:uid="{57ADDDDD-9A37-44E9-983C-5B9F0D61AF11}" name="ALGODÃO CAROÇO" dataDxfId="91"/>
+    <tableColumn id="5" xr3:uid="{BD6D0D9E-BA32-4F0C-BAA5-432806AD0AA9}" name="AMENDOIM" dataDxfId="90"/>
+    <tableColumn id="6" xr3:uid="{C681D5C9-AA19-42EE-BA4D-84A974B167AB}" name="ARROZ TOTAL" dataDxfId="89"/>
+    <tableColumn id="7" xr3:uid="{21C89C02-6582-4EA1-885A-BE6F358EFB65}" name="ARROZ SEQUEIRO" dataDxfId="88"/>
+    <tableColumn id="8" xr3:uid="{501ED1B5-AC3F-4814-A140-66E033D4A6D8}" name="ARROZ IRRIGADO" dataDxfId="87"/>
+    <tableColumn id="9" xr3:uid="{04AD2B17-EAE9-468E-9CE2-F9622EDD8FAB}" name="FEIJÃO TOTAL" dataDxfId="86"/>
+    <tableColumn id="10" xr3:uid="{42CBB38A-7B8E-4D57-921D-C225BD11BA37}" name="FEIJÃO CORES" dataDxfId="85"/>
+    <tableColumn id="11" xr3:uid="{2D91C5A5-E4B0-489B-803D-F2729F4C4F74}" name="FEIJÃO PRETO" dataDxfId="84"/>
+    <tableColumn id="12" xr3:uid="{99C1F29D-95F7-4EEA-8358-7E1C3C68D9BD}" name="FEIJÃO CAUPI" dataDxfId="83"/>
+    <tableColumn id="13" xr3:uid="{B56D35BC-0CE8-4B2C-AA42-0F259574BA42}" name="GERGELIM" dataDxfId="82"/>
+    <tableColumn id="14" xr3:uid="{DCA5F91F-E4C7-409B-8D7D-D7CB01BD5BD4}" name="GIRASSOL" dataDxfId="81"/>
+    <tableColumn id="15" xr3:uid="{C4FEE6B7-7EF6-456E-B8DE-D28E6D59FC75}" name="MAMONA" dataDxfId="80"/>
+    <tableColumn id="16" xr3:uid="{1355C0D1-26AC-4CDD-97CF-BBF69AC27943}" name="MILHO" dataDxfId="79"/>
+    <tableColumn id="17" xr3:uid="{F87E309F-FB19-4F9B-AF8A-791408964512}" name="SOJA" dataDxfId="78"/>
+    <tableColumn id="18" xr3:uid="{C3B3364B-EC9C-4949-8747-10B77423825C}" name="SORGO" dataDxfId="77"/>
+    <tableColumn id="19" xr3:uid="{24AFF494-F277-42E7-BB5C-7D4DD4610D0A}" name="AVEIA" dataDxfId="76"/>
+    <tableColumn id="20" xr3:uid="{AA50ABAF-470B-4E78-B762-C184C2002B38}" name="CANOLA" dataDxfId="75"/>
+    <tableColumn id="21" xr3:uid="{E41B718D-8512-4FBA-94E7-68D66488A5A3}" name="CENTEIO" dataDxfId="74"/>
+    <tableColumn id="22" xr3:uid="{5FD3C437-7E82-475D-BB2A-21A8CCFB39A8}" name="CEVADA" dataDxfId="73"/>
+    <tableColumn id="23" xr3:uid="{521DED51-CA6F-48F2-89ED-A38C0B449C5F}" name="TRIGO" dataDxfId="72"/>
+    <tableColumn id="24" xr3:uid="{C71EED0F-A05C-4902-876D-30647F78380D}" name="TRITICALE" dataDxfId="71"/>
+    <tableColumn id="25" xr3:uid="{43F11742-31FE-47CA-9206-DE9A85BDFA19}" name="GERAL" dataDxfId="70"/>
     <tableColumn id="26" xr3:uid="{C21B5348-2002-46F8-AF76-43C13BCC151D}" name="ANO"/>
-    <tableColumn id="27" xr3:uid="{D891F035-96D6-480F-919B-B57924EE851E}" name="MÊS" dataDxfId="65"/>
-    <tableColumn id="28" xr3:uid="{0232FBA8-C0E4-432C-A673-68FECC15080F}" name="SAFRA" dataDxfId="64"/>
+    <tableColumn id="27" xr3:uid="{D891F035-96D6-480F-919B-B57924EE851E}" name="MÊS" dataDxfId="69"/>
+    <tableColumn id="28" xr3:uid="{0232FBA8-C0E4-432C-A673-68FECC15080F}" name="SAFRA" dataDxfId="68"/>
+    <tableColumn id="29" xr3:uid="{0E8E0106-4044-4694-9008-4A48A9EF6A7D}" name="TIPO"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F205EC7A-49EF-4699-9240-6A619C4E0678}" name="PRODUCAO_POR_PRODUTO" displayName="PRODUCAO_POR_PRODUTO" ref="A1:AM25" totalsRowShown="0">
-  <autoFilter ref="A1:AM25" xr:uid="{F205EC7A-49EF-4699-9240-6A619C4E0678}"/>
-  <tableColumns count="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F205EC7A-49EF-4699-9240-6A619C4E0678}" name="PRODUCAO_POR_PRODUTO" displayName="PRODUCAO_POR_PRODUTO" ref="A1:AN25" totalsRowShown="0">
+  <autoFilter ref="A1:AN25" xr:uid="{F205EC7A-49EF-4699-9240-6A619C4E0678}"/>
+  <tableColumns count="40">
     <tableColumn id="1" xr3:uid="{6051C5E2-E2B7-4BEB-BC76-2DCAA50A7C15}" name="PRODUTO"/>
-    <tableColumn id="2" xr3:uid="{B8D0D550-3F4A-455D-B730-DC7BB52A9B2A}" name="NORTE" dataDxfId="63"/>
-    <tableColumn id="3" xr3:uid="{F0C3B647-0AA7-4BDE-9C13-1E481DDA789C}" name="RR" dataDxfId="62"/>
-    <tableColumn id="4" xr3:uid="{2118BB87-FCC8-403D-8FCA-D68B9ED42B8C}" name="RO" dataDxfId="61"/>
-    <tableColumn id="5" xr3:uid="{3CA4EDC5-768A-430C-8DF0-0D22D3452853}" name="AC" dataDxfId="60"/>
-    <tableColumn id="6" xr3:uid="{7362E812-6294-4692-A499-A02354A455C2}" name="AM" dataDxfId="59"/>
-    <tableColumn id="7" xr3:uid="{482DE189-3576-4B8E-BF1A-9C58B5F5C6ED}" name="AP" dataDxfId="58"/>
-    <tableColumn id="8" xr3:uid="{0E0FA7BD-E6EA-426B-B8B1-9665A67EE819}" name="PA" dataDxfId="57"/>
-    <tableColumn id="9" xr3:uid="{9ABF8262-0C59-4BAA-8D66-6D70743CECED}" name="TO" dataDxfId="56"/>
-    <tableColumn id="10" xr3:uid="{96D8ACAF-FFFE-4005-ADC1-94AA97CD6038}" name="NORDESTE" dataDxfId="55"/>
-    <tableColumn id="11" xr3:uid="{1FABF4C2-AC99-4575-B4A2-682FB02C27AB}" name="MA" dataDxfId="54"/>
-    <tableColumn id="12" xr3:uid="{6E7000A1-CF81-4A5C-AF79-B5A606493E58}" name="PI" dataDxfId="53"/>
-    <tableColumn id="13" xr3:uid="{5804C6F2-0132-4A60-8701-6454E76B39E1}" name="CE" dataDxfId="52"/>
-    <tableColumn id="14" xr3:uid="{FAC246D4-9925-4737-BA6E-C12890CC3492}" name="RN" dataDxfId="51"/>
-    <tableColumn id="15" xr3:uid="{70365A79-11D8-4822-868C-B390282D31AA}" name="PB" dataDxfId="50"/>
-    <tableColumn id="16" xr3:uid="{C5EA46D4-2A74-4A1B-8628-EDE27732EBC1}" name="PE" dataDxfId="49"/>
-    <tableColumn id="17" xr3:uid="{3AB16384-A9C1-4EAE-B1D3-B6980668DDFB}" name="AL" dataDxfId="48"/>
-    <tableColumn id="18" xr3:uid="{5550B480-640D-47F3-98E2-47360C39B350}" name="SE" dataDxfId="47"/>
-    <tableColumn id="19" xr3:uid="{AC7410A2-BEC3-4F36-9DE3-007ABEDAFE77}" name="BA" dataDxfId="46"/>
-    <tableColumn id="20" xr3:uid="{EF9CC834-4DE2-4F12-A01F-E188C35BB745}" name="CENTRO-OESTE" dataDxfId="45"/>
-    <tableColumn id="21" xr3:uid="{43361983-B660-4F10-8172-158B7FE088A3}" name="MT" dataDxfId="44"/>
-    <tableColumn id="22" xr3:uid="{1D87111A-4709-4B48-BC75-F06DA78D87CB}" name="MS" dataDxfId="43"/>
-    <tableColumn id="23" xr3:uid="{8C8B08DD-2483-4E25-AB6C-69DC01B3EB3D}" name="GO" dataDxfId="42"/>
-    <tableColumn id="24" xr3:uid="{9D3A4E55-E1CC-4509-9BBA-1BA1B5720931}" name="DF" dataDxfId="41"/>
-    <tableColumn id="25" xr3:uid="{64CEA2A0-9627-43CF-9192-24F44872CC96}" name="SUDESTE" dataDxfId="40"/>
-    <tableColumn id="26" xr3:uid="{4FBE3EC3-154E-4DF3-ABB6-B6DEFFC26271}" name="MG" dataDxfId="39"/>
-    <tableColumn id="27" xr3:uid="{B6B47D99-4133-4D01-BF64-2BBBE6D3BE49}" name="ES" dataDxfId="38"/>
-    <tableColumn id="28" xr3:uid="{7CC112A7-D0E8-4317-B401-EC4CD011155C}" name="RJ" dataDxfId="37"/>
-    <tableColumn id="29" xr3:uid="{14E6FF96-46F0-467D-A5A3-F1C831072AA9}" name="SP" dataDxfId="36"/>
-    <tableColumn id="30" xr3:uid="{932BDB91-3454-40CD-B097-52A8AA0A2F81}" name="SUL" dataDxfId="35"/>
-    <tableColumn id="31" xr3:uid="{AA858ED8-15B1-4985-9F57-E0EE2783C677}" name="PR" dataDxfId="34"/>
-    <tableColumn id="32" xr3:uid="{D302D227-008B-444D-87CF-C19499331330}" name="SC" dataDxfId="33"/>
-    <tableColumn id="33" xr3:uid="{65AB5642-25AB-4920-8029-D56BC42AB123}" name="RS" dataDxfId="32"/>
-    <tableColumn id="34" xr3:uid="{7666B84C-5946-494A-83CA-2B24D2CF0DC8}" name="NORTE-NORDESTE" dataDxfId="31"/>
-    <tableColumn id="35" xr3:uid="{633B8894-AE4A-45AC-B1C9-B4EAA702D9F9}" name="CENTRO-SUL" dataDxfId="30"/>
-    <tableColumn id="36" xr3:uid="{6BB08E62-BEF0-4192-83F6-2E12E9E586B8}" name="BRASIL" dataDxfId="29"/>
-    <tableColumn id="37" xr3:uid="{ECC44396-0C86-4DF0-B859-53097AD13988}" name="ANO" dataDxfId="28"/>
-    <tableColumn id="38" xr3:uid="{57AEF2DA-BFBE-4B5B-ABC0-477C4D3CA382}" name="MÊS" dataDxfId="27"/>
-    <tableColumn id="39" xr3:uid="{4AF1745A-E1C0-4A75-AFC1-E75F141DCCAA}" name="SAFRA" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{B8D0D550-3F4A-455D-B730-DC7BB52A9B2A}" name="NORTE" dataDxfId="67"/>
+    <tableColumn id="3" xr3:uid="{F0C3B647-0AA7-4BDE-9C13-1E481DDA789C}" name="RR" dataDxfId="66"/>
+    <tableColumn id="4" xr3:uid="{2118BB87-FCC8-403D-8FCA-D68B9ED42B8C}" name="RO" dataDxfId="65"/>
+    <tableColumn id="5" xr3:uid="{3CA4EDC5-768A-430C-8DF0-0D22D3452853}" name="AC" dataDxfId="64"/>
+    <tableColumn id="6" xr3:uid="{7362E812-6294-4692-A499-A02354A455C2}" name="AM" dataDxfId="63"/>
+    <tableColumn id="7" xr3:uid="{482DE189-3576-4B8E-BF1A-9C58B5F5C6ED}" name="AP" dataDxfId="62"/>
+    <tableColumn id="8" xr3:uid="{0E0FA7BD-E6EA-426B-B8B1-9665A67EE819}" name="PA" dataDxfId="61"/>
+    <tableColumn id="9" xr3:uid="{9ABF8262-0C59-4BAA-8D66-6D70743CECED}" name="TO" dataDxfId="60"/>
+    <tableColumn id="10" xr3:uid="{96D8ACAF-FFFE-4005-ADC1-94AA97CD6038}" name="NORDESTE" dataDxfId="59"/>
+    <tableColumn id="11" xr3:uid="{1FABF4C2-AC99-4575-B4A2-682FB02C27AB}" name="MA" dataDxfId="58"/>
+    <tableColumn id="12" xr3:uid="{6E7000A1-CF81-4A5C-AF79-B5A606493E58}" name="PI" dataDxfId="57"/>
+    <tableColumn id="13" xr3:uid="{5804C6F2-0132-4A60-8701-6454E76B39E1}" name="CE" dataDxfId="56"/>
+    <tableColumn id="14" xr3:uid="{FAC246D4-9925-4737-BA6E-C12890CC3492}" name="RN" dataDxfId="55"/>
+    <tableColumn id="15" xr3:uid="{70365A79-11D8-4822-868C-B390282D31AA}" name="PB" dataDxfId="54"/>
+    <tableColumn id="16" xr3:uid="{C5EA46D4-2A74-4A1B-8628-EDE27732EBC1}" name="PE" dataDxfId="53"/>
+    <tableColumn id="17" xr3:uid="{3AB16384-A9C1-4EAE-B1D3-B6980668DDFB}" name="AL" dataDxfId="52"/>
+    <tableColumn id="18" xr3:uid="{5550B480-640D-47F3-98E2-47360C39B350}" name="SE" dataDxfId="51"/>
+    <tableColumn id="19" xr3:uid="{AC7410A2-BEC3-4F36-9DE3-007ABEDAFE77}" name="BA" dataDxfId="50"/>
+    <tableColumn id="20" xr3:uid="{EF9CC834-4DE2-4F12-A01F-E188C35BB745}" name="CENTRO-OESTE" dataDxfId="49"/>
+    <tableColumn id="21" xr3:uid="{43361983-B660-4F10-8172-158B7FE088A3}" name="MT" dataDxfId="48"/>
+    <tableColumn id="22" xr3:uid="{1D87111A-4709-4B48-BC75-F06DA78D87CB}" name="MS" dataDxfId="47"/>
+    <tableColumn id="23" xr3:uid="{8C8B08DD-2483-4E25-AB6C-69DC01B3EB3D}" name="GO" dataDxfId="46"/>
+    <tableColumn id="24" xr3:uid="{9D3A4E55-E1CC-4509-9BBA-1BA1B5720931}" name="DF" dataDxfId="45"/>
+    <tableColumn id="25" xr3:uid="{64CEA2A0-9627-43CF-9192-24F44872CC96}" name="SUDESTE" dataDxfId="44"/>
+    <tableColumn id="26" xr3:uid="{4FBE3EC3-154E-4DF3-ABB6-B6DEFFC26271}" name="MG" dataDxfId="43"/>
+    <tableColumn id="27" xr3:uid="{B6B47D99-4133-4D01-BF64-2BBBE6D3BE49}" name="ES" dataDxfId="42"/>
+    <tableColumn id="28" xr3:uid="{7CC112A7-D0E8-4317-B401-EC4CD011155C}" name="RJ" dataDxfId="41"/>
+    <tableColumn id="29" xr3:uid="{14E6FF96-46F0-467D-A5A3-F1C831072AA9}" name="SP" dataDxfId="40"/>
+    <tableColumn id="30" xr3:uid="{932BDB91-3454-40CD-B097-52A8AA0A2F81}" name="SUL" dataDxfId="39"/>
+    <tableColumn id="31" xr3:uid="{AA858ED8-15B1-4985-9F57-E0EE2783C677}" name="PR" dataDxfId="38"/>
+    <tableColumn id="32" xr3:uid="{D302D227-008B-444D-87CF-C19499331330}" name="SC" dataDxfId="37"/>
+    <tableColumn id="33" xr3:uid="{65AB5642-25AB-4920-8029-D56BC42AB123}" name="RS" dataDxfId="36"/>
+    <tableColumn id="34" xr3:uid="{7666B84C-5946-494A-83CA-2B24D2CF0DC8}" name="NORTE-NORDESTE" dataDxfId="35"/>
+    <tableColumn id="35" xr3:uid="{633B8894-AE4A-45AC-B1C9-B4EAA702D9F9}" name="CENTRO-SUL" dataDxfId="34"/>
+    <tableColumn id="36" xr3:uid="{6BB08E62-BEF0-4192-83F6-2E12E9E586B8}" name="BRASIL" dataDxfId="33"/>
+    <tableColumn id="37" xr3:uid="{ECC44396-0C86-4DF0-B859-53097AD13988}" name="ANO" dataDxfId="32"/>
+    <tableColumn id="38" xr3:uid="{57AEF2DA-BFBE-4B5B-ABC0-477C4D3CA382}" name="MÊS" dataDxfId="31"/>
+    <tableColumn id="39" xr3:uid="{4AF1745A-E1C0-4A75-AFC1-E75F141DCCAA}" name="SAFRA" dataDxfId="30"/>
+    <tableColumn id="40" xr3:uid="{CF22A9FA-FD4C-4053-8875-EAFCA1A6686C}" name="TIPO" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{D31E3FB7-06A9-4F00-8000-681192EE3207}" name="PRODUCAO_POR_REGIAO" displayName="PRODUCAO_POR_REGIAO" ref="A1:AB36" totalsRowShown="0">
-  <autoFilter ref="A1:AB36" xr:uid="{51B9CBF4-A819-4208-A9FE-4497BC6B95BA}"/>
-  <tableColumns count="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{D31E3FB7-06A9-4F00-8000-681192EE3207}" name="PRODUCAO_POR_REGIAO" displayName="PRODUCAO_POR_REGIAO" ref="A1:AC36" totalsRowShown="0">
+  <autoFilter ref="A1:AC36" xr:uid="{51B9CBF4-A819-4208-A9FE-4497BC6B95BA}"/>
+  <tableColumns count="29">
     <tableColumn id="1" xr3:uid="{97EFA303-A9FC-46C0-A365-D8BFD6B07F4E}" name="REGIÃO"/>
-    <tableColumn id="2" xr3:uid="{CD1BE27C-2122-4E57-BF75-B4E0FA407680}" name="ALGODÃO TOTAL" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{6AAC4787-45BB-49C3-925E-EB86773D0EE3}" name="ALGODÃO PLUMA" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{A709C33E-0EFD-439D-AFA6-DCBE5DFECC09}" name="ALGODÃO CAROÇO" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{36919ACC-6DBD-4BA6-B171-C06771CAA181}" name="AMENDOIM" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{A9E1ECF8-9280-4528-BB2D-F3444CC4E573}" name="ARROZ TOTAL" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{E24CCEF1-19C6-4E7E-8519-F2CBD6FFBD2C}" name="ARROZ SEQUEIRO" dataDxfId="20"/>
-    <tableColumn id="8" xr3:uid="{27262FD4-F510-4739-AE4D-503E89394540}" name="ARROZ IRRIGADO" dataDxfId="19"/>
-    <tableColumn id="9" xr3:uid="{07A828EE-65C2-453C-98A5-132A6F8EEB49}" name="FEIJÃO TOTAL" dataDxfId="18"/>
-    <tableColumn id="10" xr3:uid="{77436711-59D7-4D39-A13D-93314192FF57}" name="FEIJÃO CORES" dataDxfId="17"/>
-    <tableColumn id="11" xr3:uid="{C39CBBE1-C887-4FAA-B20D-BEF14F189268}" name="FEIJÃO PRETO" dataDxfId="16"/>
-    <tableColumn id="12" xr3:uid="{793D8F4C-ED63-45E7-81EC-8827A45470EF}" name="FEIJÃO CAUPI" dataDxfId="15"/>
-    <tableColumn id="13" xr3:uid="{59CC00D7-C96D-4832-9F17-68AA9395C332}" name="GERGELIM" dataDxfId="14"/>
-    <tableColumn id="14" xr3:uid="{6F397307-9E9A-4B49-89A4-0D105DC65A10}" name="GIRASSOL" dataDxfId="13"/>
-    <tableColumn id="15" xr3:uid="{76D545D2-CB23-48DD-AB8A-DAF6093C755D}" name="MAMONA" dataDxfId="12"/>
-    <tableColumn id="16" xr3:uid="{72E88D52-C6D2-4CF2-8498-8A5F1E83E6C7}" name="MILHO" dataDxfId="11"/>
-    <tableColumn id="17" xr3:uid="{4972AB7E-DAFC-42EA-8460-6CE3DFB48C04}" name="SOJA" dataDxfId="10"/>
-    <tableColumn id="18" xr3:uid="{C27C81AD-E84C-4DB4-9290-8E1075D91C93}" name="SORGO" dataDxfId="9"/>
-    <tableColumn id="19" xr3:uid="{0A447A82-E343-410A-8854-08B23C052F47}" name="AVEIA" dataDxfId="8"/>
-    <tableColumn id="20" xr3:uid="{F5ED3C8B-B7CB-452E-96A2-FCCEB899C54E}" name="CANOLA" dataDxfId="7"/>
-    <tableColumn id="21" xr3:uid="{17829594-1EEC-4783-9488-1309944A44E5}" name="CENTEIO" dataDxfId="6"/>
-    <tableColumn id="22" xr3:uid="{49B2C1E3-0396-4037-BB4B-32C18FDB6CC7}" name="CEVADA" dataDxfId="5"/>
-    <tableColumn id="23" xr3:uid="{C10C34AB-D106-4FB2-B097-C90EF653E9E5}" name="TRIGO" dataDxfId="4"/>
-    <tableColumn id="24" xr3:uid="{80045204-E6E2-42D6-9449-CCD3B9641988}" name="TRITICALE" dataDxfId="3"/>
-    <tableColumn id="25" xr3:uid="{0FB9C96B-75F4-4026-A109-A799A828C96B}" name="GERAL" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{CD1BE27C-2122-4E57-BF75-B4E0FA407680}" name="ALGODÃO TOTAL" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{6AAC4787-45BB-49C3-925E-EB86773D0EE3}" name="ALGODÃO PLUMA" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{A709C33E-0EFD-439D-AFA6-DCBE5DFECC09}" name="ALGODÃO CAROÇO" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{36919ACC-6DBD-4BA6-B171-C06771CAA181}" name="AMENDOIM" dataDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{A9E1ECF8-9280-4528-BB2D-F3444CC4E573}" name="ARROZ TOTAL" dataDxfId="25"/>
+    <tableColumn id="7" xr3:uid="{E24CCEF1-19C6-4E7E-8519-F2CBD6FFBD2C}" name="ARROZ SEQUEIRO" dataDxfId="24"/>
+    <tableColumn id="8" xr3:uid="{27262FD4-F510-4739-AE4D-503E89394540}" name="ARROZ IRRIGADO" dataDxfId="23"/>
+    <tableColumn id="9" xr3:uid="{07A828EE-65C2-453C-98A5-132A6F8EEB49}" name="FEIJÃO TOTAL" dataDxfId="22"/>
+    <tableColumn id="10" xr3:uid="{77436711-59D7-4D39-A13D-93314192FF57}" name="FEIJÃO CORES" dataDxfId="21"/>
+    <tableColumn id="11" xr3:uid="{C39CBBE1-C887-4FAA-B20D-BEF14F189268}" name="FEIJÃO PRETO" dataDxfId="20"/>
+    <tableColumn id="12" xr3:uid="{793D8F4C-ED63-45E7-81EC-8827A45470EF}" name="FEIJÃO CAUPI" dataDxfId="19"/>
+    <tableColumn id="13" xr3:uid="{59CC00D7-C96D-4832-9F17-68AA9395C332}" name="GERGELIM" dataDxfId="18"/>
+    <tableColumn id="14" xr3:uid="{6F397307-9E9A-4B49-89A4-0D105DC65A10}" name="GIRASSOL" dataDxfId="17"/>
+    <tableColumn id="15" xr3:uid="{76D545D2-CB23-48DD-AB8A-DAF6093C755D}" name="MAMONA" dataDxfId="16"/>
+    <tableColumn id="16" xr3:uid="{72E88D52-C6D2-4CF2-8498-8A5F1E83E6C7}" name="MILHO" dataDxfId="15"/>
+    <tableColumn id="17" xr3:uid="{4972AB7E-DAFC-42EA-8460-6CE3DFB48C04}" name="SOJA" dataDxfId="14"/>
+    <tableColumn id="18" xr3:uid="{C27C81AD-E84C-4DB4-9290-8E1075D91C93}" name="SORGO" dataDxfId="13"/>
+    <tableColumn id="19" xr3:uid="{0A447A82-E343-410A-8854-08B23C052F47}" name="AVEIA" dataDxfId="12"/>
+    <tableColumn id="20" xr3:uid="{F5ED3C8B-B7CB-452E-96A2-FCCEB899C54E}" name="CANOLA" dataDxfId="11"/>
+    <tableColumn id="21" xr3:uid="{17829594-1EEC-4783-9488-1309944A44E5}" name="CENTEIO" dataDxfId="10"/>
+    <tableColumn id="22" xr3:uid="{49B2C1E3-0396-4037-BB4B-32C18FDB6CC7}" name="CEVADA" dataDxfId="9"/>
+    <tableColumn id="23" xr3:uid="{C10C34AB-D106-4FB2-B097-C90EF653E9E5}" name="TRIGO" dataDxfId="8"/>
+    <tableColumn id="24" xr3:uid="{80045204-E6E2-42D6-9449-CCD3B9641988}" name="TRITICALE" dataDxfId="7"/>
+    <tableColumn id="25" xr3:uid="{0FB9C96B-75F4-4026-A109-A799A828C96B}" name="GERAL" dataDxfId="6"/>
     <tableColumn id="26" xr3:uid="{FA0650E0-02EE-433A-927B-8DCFAD627C43}" name="ANO"/>
-    <tableColumn id="27" xr3:uid="{94C00EC6-AB2D-4D90-B787-2C1FF57B5832}" name="MÊS" dataDxfId="1"/>
-    <tableColumn id="28" xr3:uid="{57AFB38B-E07E-457A-9571-EB539326E109}" name="SAFRA" dataDxfId="0"/>
+    <tableColumn id="27" xr3:uid="{94C00EC6-AB2D-4D90-B787-2C1FF57B5832}" name="MÊS" dataDxfId="5"/>
+    <tableColumn id="28" xr3:uid="{57AFB38B-E07E-457A-9571-EB539326E109}" name="SAFRA" dataDxfId="4"/>
+    <tableColumn id="29" xr3:uid="{CFA5E296-3719-493C-AD15-9227DD04F94F}" name="TIPO"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1401,10 +1431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM26"/>
+  <dimension ref="A1:AN26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AJ25"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AN2" sqref="AN2:AN25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1425,7 +1455,7 @@
     <col min="38" max="38" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1543,8 +1573,11 @@
       <c r="AM1" t="s">
         <v>62</v>
       </c>
+      <c r="AN1" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -1662,8 +1695,11 @@
       <c r="AM2" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AN2" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -1781,8 +1817,11 @@
       <c r="AM3" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AN3" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -1900,8 +1939,11 @@
       <c r="AM4" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AN4" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -2019,8 +2061,11 @@
       <c r="AM5" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AN5" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -2138,8 +2183,11 @@
       <c r="AM6" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AN6" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -2257,8 +2305,11 @@
       <c r="AM7" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AN7" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -2376,8 +2427,11 @@
       <c r="AM8" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AN8" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -2495,8 +2549,11 @@
       <c r="AM9" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AN9" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -2614,8 +2671,11 @@
       <c r="AM10" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AN10" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -2733,8 +2793,11 @@
       <c r="AM11" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AN11" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -2852,8 +2915,11 @@
       <c r="AM12" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AN12" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -2971,8 +3037,11 @@
       <c r="AM13" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AN13" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -3090,8 +3159,11 @@
       <c r="AM14" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AN14" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -3209,8 +3281,11 @@
       <c r="AM15" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AN15" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -3328,8 +3403,11 @@
       <c r="AM16" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AN16" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -3447,8 +3525,11 @@
       <c r="AM17" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AN17" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>49</v>
       </c>
@@ -3566,8 +3647,11 @@
       <c r="AM18" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AN18" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -3685,8 +3769,11 @@
       <c r="AM19" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AN19" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -3804,8 +3891,11 @@
       <c r="AM20" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AN20" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -3923,8 +4013,11 @@
       <c r="AM21" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AN21" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -4042,8 +4135,11 @@
       <c r="AM22" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AN22" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -4161,8 +4257,11 @@
       <c r="AM23" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AN23" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -4280,8 +4379,11 @@
       <c r="AM24" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AN24" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -4434,8 +4536,11 @@
       <c r="AM25" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AN25" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
       <c r="AK26" s="2"/>
       <c r="AL26" s="2"/>
       <c r="AM26" s="2"/>
@@ -4451,10 +4556,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B751A56-DEA9-4576-9751-6411F3002DDE}">
-  <dimension ref="A1:AB36"/>
+  <dimension ref="A1:AC36"/>
   <sheetViews>
     <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Y2" sqref="B2:Y36"/>
+      <selection activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4481,7 +4586,7 @@
     <col min="27" max="27" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -4566,8 +4671,11 @@
       <c r="AB1" t="s">
         <v>62</v>
       </c>
+      <c r="AC1" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4653,8 +4761,11 @@
       <c r="AB2" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC2" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4740,8 +4851,11 @@
       <c r="AB3" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC3" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4827,8 +4941,11 @@
       <c r="AB4" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC4" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4914,8 +5031,11 @@
       <c r="AB5" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC5" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -5001,8 +5121,11 @@
       <c r="AB6" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC6" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -5088,8 +5211,11 @@
       <c r="AB7" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC7" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -5175,8 +5301,11 @@
       <c r="AB8" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC8" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -5262,8 +5391,11 @@
       <c r="AB9" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC9" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -5349,8 +5481,11 @@
       <c r="AB10" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC10" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -5436,8 +5571,11 @@
       <c r="AB11" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC11" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -5523,8 +5661,11 @@
       <c r="AB12" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC12" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -5610,8 +5751,11 @@
       <c r="AB13" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC13" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -5697,8 +5841,11 @@
       <c r="AB14" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC14" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -5784,8 +5931,11 @@
       <c r="AB15" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC15" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -5871,8 +6021,11 @@
       <c r="AB16" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC16" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -5958,8 +6111,11 @@
       <c r="AB17" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC17" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -6045,8 +6201,11 @@
       <c r="AB18" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC18" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -6132,8 +6291,11 @@
       <c r="AB19" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC19" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -6219,8 +6381,11 @@
       <c r="AB20" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC20" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -6306,8 +6471,11 @@
       <c r="AB21" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC21" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -6393,8 +6561,11 @@
       <c r="AB22" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC22" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -6480,8 +6651,11 @@
       <c r="AB23" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC23" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -6567,8 +6741,11 @@
       <c r="AB24" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC24" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -6654,8 +6831,11 @@
       <c r="AB25" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC25" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -6741,8 +6921,11 @@
       <c r="AB26" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC26" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -6828,8 +7011,11 @@
       <c r="AB27" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC27" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -6915,8 +7101,11 @@
       <c r="AB28" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC28" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -7002,8 +7191,11 @@
       <c r="AB29" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC29" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -7089,8 +7281,11 @@
       <c r="AB30" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC30" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -7176,8 +7371,11 @@
       <c r="AB31" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC31" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -7263,8 +7461,11 @@
       <c r="AB32" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC32" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -7350,8 +7551,11 @@
       <c r="AB33" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC33" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>58</v>
       </c>
@@ -7437,8 +7641,11 @@
       <c r="AB34" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC34" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>59</v>
       </c>
@@ -7524,8 +7731,11 @@
       <c r="AB35" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC35" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -7610,6 +7820,9 @@
       </c>
       <c r="AB36" s="2" t="s">
         <v>63</v>
+      </c>
+      <c r="AC36" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -7623,11 +7836,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06ADAAA7-57A0-4A48-85BB-92E93E4D0781}">
-  <dimension ref="A1:AM26"/>
+  <dimension ref="A1:AN26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P25" sqref="P25"/>
+      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AN2" sqref="AN2:AN25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7646,9 +7859,10 @@
     <col min="35" max="35" width="14.28515625" customWidth="1"/>
     <col min="36" max="36" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7766,8 +7980,11 @@
       <c r="AM1" t="s">
         <v>62</v>
       </c>
+      <c r="AN1" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -7885,8 +8102,11 @@
       <c r="AM2" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AN2" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -8004,8 +8224,11 @@
       <c r="AM3" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AN3" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -8123,8 +8346,11 @@
       <c r="AM4" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AN4" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -8242,8 +8468,11 @@
       <c r="AM5" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AN5" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -8361,8 +8590,11 @@
       <c r="AM6" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AN6" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -8480,8 +8712,11 @@
       <c r="AM7" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AN7" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -8599,8 +8834,11 @@
       <c r="AM8" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AN8" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -8718,8 +8956,11 @@
       <c r="AM9" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AN9" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -8837,8 +9078,11 @@
       <c r="AM10" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AN10" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -8956,8 +9200,11 @@
       <c r="AM11" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AN11" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -9075,8 +9322,11 @@
       <c r="AM12" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AN12" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -9194,8 +9444,11 @@
       <c r="AM13" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AN13" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -9313,8 +9566,11 @@
       <c r="AM14" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AN14" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -9432,8 +9688,11 @@
       <c r="AM15" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AN15" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -9551,8 +9810,11 @@
       <c r="AM16" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AN16" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -9670,8 +9932,11 @@
       <c r="AM17" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AN17" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>49</v>
       </c>
@@ -9789,8 +10054,11 @@
       <c r="AM18" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AN18" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -9908,8 +10176,11 @@
       <c r="AM19" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AN19" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -10027,8 +10298,11 @@
       <c r="AM20" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AN20" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -10146,8 +10420,11 @@
       <c r="AM21" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AN21" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -10265,8 +10542,11 @@
       <c r="AM22" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AN22" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -10384,8 +10664,11 @@
       <c r="AM23" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AN23" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -10503,8 +10786,11 @@
       <c r="AM24" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AN24" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -10622,8 +10908,11 @@
       <c r="AM25" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AN25" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -10675,8 +10964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BCD6B43-6B79-4F6C-BEBB-EEE94FDB59C5}">
   <dimension ref="A1:AM36"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Y3" sqref="Y3"/>
+    <sheetView topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2:AC36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10702,6 +10991,7 @@
     <col min="24" max="24" width="11.7109375" customWidth="1"/>
     <col min="25" max="25" width="10.85546875" customWidth="1"/>
     <col min="27" max="27" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="30" max="31" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="19.140625" customWidth="1"/>
@@ -10710,7 +11000,7 @@
     <col min="38" max="38" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -10795,8 +11085,11 @@
       <c r="AB1" t="s">
         <v>62</v>
       </c>
+      <c r="AC1" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -10881,8 +11174,11 @@
       <c r="AB2" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC2" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -10967,8 +11263,11 @@
       <c r="AB3" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC3" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -11053,8 +11352,11 @@
       <c r="AB4" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC4" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -11139,8 +11441,11 @@
       <c r="AB5" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC5" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -11225,8 +11530,11 @@
       <c r="AB6" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC6" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -11311,8 +11619,11 @@
       <c r="AB7" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC7" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -11397,8 +11708,11 @@
       <c r="AB8" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC8" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -11483,8 +11797,11 @@
       <c r="AB9" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC9" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -11569,8 +11886,11 @@
       <c r="AB10" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC10" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -11655,8 +11975,11 @@
       <c r="AB11" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC11" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -11741,8 +12064,11 @@
       <c r="AB12" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC12" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -11827,8 +12153,11 @@
       <c r="AB13" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC13" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -11913,8 +12242,11 @@
       <c r="AB14" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC14" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -11999,8 +12331,11 @@
       <c r="AB15" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC15" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -12084,6 +12419,9 @@
       </c>
       <c r="AB16" s="2" t="s">
         <v>63</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.25">
@@ -12171,6 +12509,9 @@
       <c r="AB17" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC17" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -12257,6 +12598,9 @@
       <c r="AB18" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC18" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -12343,6 +12687,9 @@
       <c r="AB19" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC19" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -12429,6 +12776,9 @@
       <c r="AB20" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC20" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -12515,6 +12865,9 @@
       <c r="AB21" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC21" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -12601,6 +12954,9 @@
       <c r="AB22" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC22" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -12687,6 +13043,9 @@
       <c r="AB23" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC23" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -12773,6 +13132,9 @@
       <c r="AB24" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC24" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -12859,6 +13221,9 @@
       <c r="AB25" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC25" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -12945,7 +13310,9 @@
       <c r="AB26" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AC26" s="1"/>
+      <c r="AC26" t="s">
+        <v>68</v>
+      </c>
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
       <c r="AF26" s="1"/>
@@ -13042,6 +13409,9 @@
       <c r="AB27" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC27" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -13128,6 +13498,9 @@
       <c r="AB28" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC28" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -13214,6 +13587,9 @@
       <c r="AB29" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC29" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -13300,6 +13676,9 @@
       <c r="AB30" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC30" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -13386,6 +13765,9 @@
       <c r="AB31" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC31" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -13472,8 +13854,11 @@
       <c r="AB32" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC32" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -13558,8 +13943,11 @@
       <c r="AB33" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC33" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>58</v>
       </c>
@@ -13644,8 +14032,11 @@
       <c r="AB34" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC34" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>59</v>
       </c>
@@ -13730,8 +14121,11 @@
       <c r="AB35" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC35" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -13815,6 +14209,9 @@
       </c>
       <c r="AB36" s="2" t="s">
         <v>63</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -13828,11 +14225,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A92389E-F363-478C-8FE0-DB1A38F4DB64}">
-  <dimension ref="A1:AM25"/>
+  <dimension ref="A1:AN25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E29" sqref="E29"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AN2" sqref="AN2:AN25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13847,9 +14244,10 @@
     <col min="35" max="35" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13967,8 +14365,11 @@
       <c r="AM1" t="s">
         <v>62</v>
       </c>
+      <c r="AN1" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -14086,8 +14487,11 @@
       <c r="AM2" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AN2" s="2" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -14205,8 +14609,11 @@
       <c r="AM3" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AN3" s="2" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -14324,8 +14731,11 @@
       <c r="AM4" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AN4" s="2" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -14443,8 +14853,11 @@
       <c r="AM5" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AN5" s="2" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -14562,8 +14975,11 @@
       <c r="AM6" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AN6" s="2" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -14681,8 +15097,11 @@
       <c r="AM7" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AN7" s="2" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -14800,8 +15219,11 @@
       <c r="AM8" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AN8" s="2" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -14919,8 +15341,11 @@
       <c r="AM9" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AN9" s="2" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -15038,8 +15463,11 @@
       <c r="AM10" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AN10" s="2" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -15157,8 +15585,11 @@
       <c r="AM11" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AN11" s="2" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -15276,8 +15707,11 @@
       <c r="AM12" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AN12" s="2" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -15395,8 +15829,11 @@
       <c r="AM13" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AN13" s="2" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -15514,8 +15951,11 @@
       <c r="AM14" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AN14" s="2" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -15633,8 +16073,11 @@
       <c r="AM15" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AN15" s="2" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -15752,8 +16195,11 @@
       <c r="AM16" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AN16" s="2" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -15871,8 +16317,11 @@
       <c r="AM17" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AN17" s="2" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>49</v>
       </c>
@@ -15990,8 +16439,11 @@
       <c r="AM18" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AN18" s="2" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -16109,8 +16561,11 @@
       <c r="AM19" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AN19" s="2" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -16228,8 +16683,11 @@
       <c r="AM20" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AN20" s="2" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -16347,8 +16805,11 @@
       <c r="AM21" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AN21" s="2" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -16466,8 +16927,11 @@
       <c r="AM22" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AN22" s="2" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -16585,8 +17049,11 @@
       <c r="AM23" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AN23" s="2" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -16704,8 +17171,11 @@
       <c r="AM24" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AN24" s="2" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -16822,6 +17292,9 @@
       </c>
       <c r="AM25" s="2" t="s">
         <v>63</v>
+      </c>
+      <c r="AN25" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -16837,8 +17310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37856A1E-82E7-45AE-A2B0-C510B7D63887}">
   <dimension ref="A1:AM36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2"/>
+    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2:AC36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16865,6 +17338,7 @@
     <col min="24" max="24" width="11.7109375" customWidth="1"/>
     <col min="25" max="25" width="10.85546875" customWidth="1"/>
     <col min="27" max="27" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13" bestFit="1" customWidth="1"/>
     <col min="30" max="31" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="19.140625" customWidth="1"/>
@@ -16873,7 +17347,7 @@
     <col min="38" max="38" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -16958,8 +17432,11 @@
       <c r="AB1" t="s">
         <v>62</v>
       </c>
+      <c r="AC1" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -17044,8 +17521,11 @@
       <c r="AB2" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC2" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -17130,8 +17610,11 @@
       <c r="AB3" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC3" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -17216,8 +17699,11 @@
       <c r="AB4" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC4" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -17302,8 +17788,11 @@
       <c r="AB5" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC5" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -17388,8 +17877,11 @@
       <c r="AB6" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC6" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -17474,8 +17966,11 @@
       <c r="AB7" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC7" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -17560,8 +18055,11 @@
       <c r="AB8" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC8" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -17646,8 +18144,11 @@
       <c r="AB9" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC9" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -17732,8 +18233,11 @@
       <c r="AB10" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC10" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -17818,8 +18322,11 @@
       <c r="AB11" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC11" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -17904,8 +18411,11 @@
       <c r="AB12" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC12" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -17990,8 +18500,11 @@
       <c r="AB13" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC13" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -18076,8 +18589,11 @@
       <c r="AB14" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC14" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -18162,8 +18678,11 @@
       <c r="AB15" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC15" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -18247,6 +18766,9 @@
       </c>
       <c r="AB16" s="2" t="s">
         <v>63</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.25">
@@ -18334,6 +18856,9 @@
       <c r="AB17" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC17" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -18420,6 +18945,9 @@
       <c r="AB18" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC18" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -18506,6 +19034,9 @@
       <c r="AB19" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC19" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -18592,6 +19123,9 @@
       <c r="AB20" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC20" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -18678,6 +19212,9 @@
       <c r="AB21" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC21" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -18764,6 +19301,9 @@
       <c r="AB22" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC22" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -18850,6 +19390,9 @@
       <c r="AB23" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC23" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -18936,6 +19479,9 @@
       <c r="AB24" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC24" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -19022,6 +19568,9 @@
       <c r="AB25" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC25" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -19108,7 +19657,9 @@
       <c r="AB26" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AC26" s="1"/>
+      <c r="AC26" t="s">
+        <v>67</v>
+      </c>
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
       <c r="AF26" s="1"/>
@@ -19205,6 +19756,9 @@
       <c r="AB27" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC27" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -19291,6 +19845,9 @@
       <c r="AB28" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC28" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -19377,6 +19934,9 @@
       <c r="AB29" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC29" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -19463,6 +20023,9 @@
       <c r="AB30" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC30" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -19549,6 +20112,9 @@
       <c r="AB31" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC31" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -19635,8 +20201,11 @@
       <c r="AB32" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC32" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -19721,8 +20290,11 @@
       <c r="AB33" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC33" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>58</v>
       </c>
@@ -19807,8 +20379,11 @@
       <c r="AB34" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC34" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>59</v>
       </c>
@@ -19893,8 +20468,11 @@
       <c r="AB35" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AC35" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -19978,6 +20556,9 @@
       </c>
       <c r="AB36" s="2" t="s">
         <v>63</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
